--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="2186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="2192">
   <si>
     <t>myself</t>
   </si>
@@ -8408,6 +8408,30 @@
   </si>
   <si>
     <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNameEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The password cannot be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The username cannot be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login Successfully</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8808,10 +8832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8854,7 +8878,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8864,323 +8888,323 @@
         <v>971</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9188,10 +9212,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>982</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9199,10 +9223,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>983</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9210,10 +9234,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>984</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9221,10 +9245,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9232,10 +9256,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>368</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9243,10 +9267,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9254,10 +9278,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9265,10 +9289,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9276,10 +9300,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9287,10 +9311,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>988</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9298,10 +9322,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9309,10 +9333,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9320,10 +9344,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>993</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9331,10 +9355,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9342,10 +9366,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1966</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1967</v>
+        <v>992</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9353,10 +9377,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>917</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9364,10 +9388,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>918</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9375,10 +9399,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>1966</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>997</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9386,10 +9410,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>917</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9397,10 +9421,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>918</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9408,10 +9432,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9419,10 +9443,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2054</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2055</v>
+        <v>998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9430,10 +9454,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1900</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9441,10 +9465,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1898</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9452,10 +9476,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>2054</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1899</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9463,10 +9487,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9474,10 +9498,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9485,10 +9509,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9496,10 +9520,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9507,10 +9531,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>234</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9518,10 +9542,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>245</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9529,10 +9553,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1001</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9540,10 +9564,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9551,10 +9575,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1968</v>
+        <v>232</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9562,10 +9586,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9573,10 +9597,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1003</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9584,10 +9608,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>238</v>
+        <v>1968</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9595,10 +9619,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9606,10 +9630,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1713</v>
+        <v>237</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1712</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9617,10 +9641,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1005</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9628,10 +9652,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9639,10 +9663,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>242</v>
+        <v>1713</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1007</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9650,10 +9674,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9661,10 +9685,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9672,10 +9696,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9683,10 +9707,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9694,10 +9718,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9705,10 +9729,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9716,10 +9740,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9727,10 +9751,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1010</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9738,10 +9762,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1011</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9749,10 +9773,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1012</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9760,10 +9784,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>921</v>
+        <v>300</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>940</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9771,10 +9795,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>922</v>
+        <v>301</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>939</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -9782,10 +9806,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>923</v>
+        <v>302</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>938</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9793,10 +9817,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -9804,10 +9828,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9815,10 +9839,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -9826,10 +9850,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -9837,10 +9861,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -9848,10 +9872,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -9859,10 +9883,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9870,10 +9894,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1999</v>
+        <v>928</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1998</v>
+        <v>931</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9881,10 +9905,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2002</v>
+        <v>929</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2000</v>
+        <v>932</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -9892,26 +9916,44 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>2027</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -9942,6 +9984,21 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22524,8 +22581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6F37D-8BA6-4619-8E17-3D3F8DD5092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A60EEB8-9AD2-4CEC-923A-8472120729F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3597">
   <si>
     <t>myself</t>
   </si>
@@ -13258,9 +13258,6 @@
   <si>
     <t>生产井段</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Production well sections</t>
   </si>
   <si>
     <t>Production well sections</t>
@@ -13431,7 +13428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13490,12 +13487,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -13575,7 +13566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13614,7 +13605,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -15819,7 +15809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
@@ -20462,8 +20452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D638" sqref="D638"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20473,7 +20463,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>1746</v>
       </c>
@@ -20483,8 +20473,8 @@
       <c r="C1" s="14" t="s">
         <v>1748</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>3555</v>
+      <c r="D1" s="14" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -26750,13 +26740,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C449" s="25" t="s">
         <v>3592</v>
       </c>
-      <c r="C449" s="26" t="s">
+      <c r="D449" s="25" t="s">
         <v>3593</v>
-      </c>
-      <c r="D449" s="26" t="s">
-        <v>3594</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -29129,13 +29119,13 @@
       <c r="A619" s="15">
         <v>618</v>
       </c>
-      <c r="B619" s="25" t="s">
-        <v>3573</v>
+      <c r="B619" s="24" t="s">
+        <v>3572</v>
       </c>
       <c r="C619" s="18" t="s">
         <v>3536</v>
       </c>
-      <c r="D619" s="25" t="s">
+      <c r="D619" s="24" t="s">
         <v>3537</v>
       </c>
     </row>
@@ -29144,7 +29134,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="C620" s="9" t="s">
         <v>3538</v>
@@ -29228,13 +29218,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="C626" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D626" s="1" t="s">
         <v>3571</v>
-      </c>
-      <c r="D626" s="1" t="s">
-        <v>3572</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -29242,7 +29232,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>3552</v>
@@ -29256,13 +29246,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>3554</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -29270,13 +29260,13 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="C629" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D629" s="1" t="s">
         <v>3557</v>
-      </c>
-      <c r="D629" s="1" t="s">
-        <v>3558</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -29284,13 +29274,13 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="C630" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D630" s="1" t="s">
         <v>3559</v>
-      </c>
-      <c r="D630" s="1" t="s">
-        <v>3560</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -29298,13 +29288,13 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="C631" s="18" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D631" s="1" t="s">
         <v>3561</v>
-      </c>
-      <c r="D631" s="1" t="s">
-        <v>3562</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -29312,13 +29302,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C632" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D632" s="1" t="s">
         <v>3563</v>
-      </c>
-      <c r="D632" s="1" t="s">
-        <v>3564</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -29326,13 +29316,13 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="C633" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D633" s="1" t="s">
         <v>3565</v>
-      </c>
-      <c r="D633" s="1" t="s">
-        <v>3566</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -29340,13 +29330,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="C634" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D634" s="1" t="s">
         <v>3567</v>
-      </c>
-      <c r="D634" s="1" t="s">
-        <v>3568</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -29354,13 +29344,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="C635" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D635" s="1" t="s">
         <v>3569</v>
-      </c>
-      <c r="D635" s="1" t="s">
-        <v>3570</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -29368,10 +29358,10 @@
         <v>635</v>
       </c>
       <c r="B636" s="5" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C636" s="18" t="s">
         <v>3587</v>
-      </c>
-      <c r="C636" s="18" t="s">
-        <v>3588</v>
       </c>
       <c r="D636" s="9" t="s">
         <v>480</v>
@@ -29382,13 +29372,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="5" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C637" s="18" t="s">
         <v>3589</v>
       </c>
-      <c r="C637" s="18" t="s">
+      <c r="D637" s="9" t="s">
         <v>3590</v>
-      </c>
-      <c r="D637" s="9" t="s">
-        <v>3591</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -29396,13 +29386,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="5" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C638" s="18" t="s">
         <v>3595</v>
       </c>
-      <c r="C638" s="18" t="s">
+      <c r="D638" s="9" t="s">
         <v>3596</v>
-      </c>
-      <c r="D638" s="9" t="s">
-        <v>3597</v>
       </c>
     </row>
   </sheetData>
@@ -30282,13 +30272,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>1517</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -30302,7 +30292,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>1516</v>
@@ -30322,13 +30312,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>1515</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -30342,10 +30332,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>3227</v>
@@ -30362,7 +30352,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>1698</v>
@@ -30389,7 +30379,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7518B970-27BE-4418-8C2D-891816A825D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F311AB1-069F-4C73-8923-20A2B80A8798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="3756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="3776">
   <si>
     <t>myself</t>
   </si>
@@ -13206,14 +13206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油气生产智能监控系统 V9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《油气生产智能监控系统 V9.6》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intelligent monitoring system V9.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14180,6 +14172,91 @@
   </si>
   <si>
     <t>Dynamometer construction data-ground efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能监控系统 V9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《智能监控系统 V9.6》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extendedField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUROPERATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONALCONDITIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalConditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional conditions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16390,7 +16467,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16423,10 +16500,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3509</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3511</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16437,10 +16514,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3510</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3512</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16610,8 +16687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17566,13 +17643,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -17580,13 +17657,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -17594,13 +17671,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -17608,13 +17685,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -17622,13 +17699,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -19518,7 +19595,7 @@
         <v>1281</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -19532,7 +19609,7 @@
         <v>1282</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -19546,7 +19623,7 @@
         <v>1283</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -19560,7 +19637,7 @@
         <v>1284</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -19574,7 +19651,7 @@
         <v>1285</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -19588,7 +19665,7 @@
         <v>1286</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -19602,7 +19679,7 @@
         <v>1287</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -19616,7 +19693,7 @@
         <v>1288</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -19644,7 +19721,7 @@
         <v>1289</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -19658,7 +19735,7 @@
         <v>1290</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -19756,7 +19833,7 @@
         <v>1846</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -19770,7 +19847,7 @@
         <v>1847</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -19798,7 +19875,7 @@
         <v>1849</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -19806,13 +19883,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -19820,13 +19897,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -19834,13 +19911,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -19848,13 +19925,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -19862,13 +19939,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
@@ -19876,13 +19953,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -19890,13 +19967,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -19904,13 +19981,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -19918,13 +19995,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -19932,13 +20009,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -19946,13 +20023,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -19960,13 +20037,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -19974,13 +20051,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -19988,13 +20065,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -20002,13 +20079,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -20016,13 +20093,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -20030,13 +20107,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -20044,13 +20121,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -20058,13 +20135,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -20072,13 +20149,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -20086,13 +20163,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -20100,13 +20177,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -20114,13 +20191,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -20128,13 +20205,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -20142,13 +20219,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -20156,13 +20233,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -20170,13 +20247,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -20184,13 +20261,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -20198,13 +20275,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -20212,13 +20289,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -20226,13 +20303,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -20240,13 +20317,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -20254,13 +20331,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -20268,13 +20345,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -20288,7 +20365,7 @@
         <v>2486</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -20316,7 +20393,7 @@
         <v>2487</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -20330,7 +20407,7 @@
         <v>2488</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -20400,7 +20477,7 @@
         <v>2489</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -20428,7 +20505,7 @@
         <v>2491</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -20442,7 +20519,7 @@
         <v>2492</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -20456,7 +20533,7 @@
         <v>2493</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -20470,7 +20547,7 @@
         <v>2494</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -20512,7 +20589,7 @@
         <v>2495</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -20526,7 +20603,7 @@
         <v>2496</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -20554,7 +20631,7 @@
         <v>2497</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -20568,7 +20645,7 @@
         <v>2498</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -20582,7 +20659,7 @@
         <v>2499</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -20596,7 +20673,7 @@
         <v>2563</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -20610,7 +20687,7 @@
         <v>2564</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -20624,7 +20701,7 @@
         <v>2565</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -20638,7 +20715,7 @@
         <v>2566</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -20652,7 +20729,7 @@
         <v>2567</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -20666,7 +20743,7 @@
         <v>2568</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -20680,7 +20757,7 @@
         <v>2569</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -20694,7 +20771,7 @@
         <v>2570</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -20708,7 +20785,7 @@
         <v>2571</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -20722,7 +20799,7 @@
         <v>2572</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -20736,7 +20813,7 @@
         <v>2573</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -20750,7 +20827,7 @@
         <v>2574</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -20764,7 +20841,7 @@
         <v>2575</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -20778,7 +20855,7 @@
         <v>2576</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -20792,7 +20869,7 @@
         <v>2577</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -20806,7 +20883,7 @@
         <v>2578</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -20820,7 +20897,7 @@
         <v>2579</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -20834,7 +20911,7 @@
         <v>2580</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -20848,7 +20925,7 @@
         <v>2581</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -20862,7 +20939,7 @@
         <v>2582</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -20890,7 +20967,7 @@
         <v>2500</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -20904,7 +20981,7 @@
         <v>2501</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -20918,7 +20995,7 @@
         <v>2502</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -20932,7 +21009,7 @@
         <v>2503</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -20946,7 +21023,7 @@
         <v>2504</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -20960,7 +21037,7 @@
         <v>2505</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -20974,7 +21051,7 @@
         <v>2506</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -20988,7 +21065,7 @@
         <v>2507</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -21002,7 +21079,7 @@
         <v>2508</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -21016,7 +21093,7 @@
         <v>2509</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -21030,7 +21107,7 @@
         <v>2510</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -21044,7 +21121,7 @@
         <v>2511</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -21156,7 +21233,7 @@
         <v>2519</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -21268,7 +21345,7 @@
         <v>2527</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -21282,7 +21359,7 @@
         <v>2528</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -21296,7 +21373,7 @@
         <v>2529</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -21310,7 +21387,7 @@
         <v>2530</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -21324,7 +21401,7 @@
         <v>2531</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -21335,10 +21412,10 @@
         <v>2104</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -21349,10 +21426,10 @@
         <v>2105</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -21363,10 +21440,10 @@
         <v>2106</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -21377,10 +21454,10 @@
         <v>2107</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -21391,10 +21468,10 @@
         <v>2118</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -21405,10 +21482,10 @@
         <v>2108</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -21419,10 +21496,10 @@
         <v>2109</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -21433,10 +21510,10 @@
         <v>2110</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -21447,10 +21524,10 @@
         <v>2111</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -21461,10 +21538,10 @@
         <v>2112</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -21475,10 +21552,10 @@
         <v>2124</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -21489,10 +21566,10 @@
         <v>2125</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -21503,10 +21580,10 @@
         <v>2113</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -21517,10 +21594,10 @@
         <v>2171</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="D350" s="22" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -21534,7 +21611,7 @@
         <v>2181</v>
       </c>
       <c r="D351" s="22" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -21548,7 +21625,7 @@
         <v>2183</v>
       </c>
       <c r="D352" s="22" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -21730,7 +21807,7 @@
         <v>2175</v>
       </c>
       <c r="D365" s="22" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -21744,7 +21821,7 @@
         <v>2177</v>
       </c>
       <c r="D366" s="22" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -21758,7 +21835,7 @@
         <v>2179</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -21786,7 +21863,7 @@
         <v>2188</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -21800,7 +21877,7 @@
         <v>2190</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
   </sheetData>
@@ -21812,10 +21889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D652"/>
+  <dimension ref="A1:D655"/>
   <sheetViews>
-    <sheetView topLeftCell="A566" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D585" sqref="D585"/>
+    <sheetView tabSelected="1" topLeftCell="A643" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25868,7 +25945,7 @@
         <v>1474</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -30951,6 +31028,48 @@
       </c>
       <c r="D652" s="9" t="s">
         <v>3454</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="15">
+        <v>652</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C653" s="18" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D653" s="9" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="15">
+        <v>653</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C654" s="18" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D654" s="9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="15">
+        <v>654</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C655" s="18" t="s">
+        <v>3774</v>
+      </c>
+      <c r="D655" s="9" t="s">
+        <v>3775</v>
       </c>
     </row>
   </sheetData>
@@ -30962,10 +31081,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31930,17 +32049,17 @@
       <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>3485</v>
+      <c r="B48" s="4" t="s">
+        <v>3440</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3486</v>
+        <v>3756</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>3488</v>
+        <v>3757</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -31954,13 +32073,13 @@
         <v>3485</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>3190</v>
+        <v>3488</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -31974,17 +32093,157 @@
         <v>3485</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1300</v>
+        <v>3487</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>826</v>
+        <v>3190</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>3767</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>3764</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>3765</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32058,7 +32317,7 @@
         <v>1838</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>1887</v>
@@ -32110,7 +32369,7 @@
         <v>1819</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>1889</v>
@@ -32136,7 +32395,7 @@
         <v>1820</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1890</v>
@@ -32164,7 +32423,7 @@
         <v>1821</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1891</v>
@@ -32192,7 +32451,7 @@
         <v>1839</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1892</v>
@@ -32220,7 +32479,7 @@
         <v>1822</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1893</v>
@@ -32248,7 +32507,7 @@
         <v>1823</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>1894</v>
@@ -32304,7 +32563,7 @@
         <v>1824</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>1896</v>
@@ -32332,7 +32591,7 @@
         <v>1825</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>1897</v>
@@ -32360,7 +32619,7 @@
         <v>1826</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1898</v>
@@ -32388,7 +32647,7 @@
         <v>1827</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1899</v>
@@ -32416,7 +32675,7 @@
         <v>1828</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>1900</v>
@@ -32444,7 +32703,7 @@
         <v>1829</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1901</v>
@@ -32472,7 +32731,7 @@
         <v>1830</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>1902</v>
@@ -32500,7 +32759,7 @@
         <v>1831</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1903</v>
@@ -32528,7 +32787,7 @@
         <v>1841</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>1904</v>
@@ -32556,7 +32815,7 @@
         <v>1832</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>1905</v>
@@ -32584,7 +32843,7 @@
         <v>1842</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>1901</v>
@@ -32612,7 +32871,7 @@
         <v>1833</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>1906</v>
@@ -32640,7 +32899,7 @@
         <v>1834</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>1907</v>
@@ -32668,7 +32927,7 @@
         <v>1844</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>1908</v>
@@ -32696,7 +32955,7 @@
         <v>1995</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>1909</v>
@@ -32724,7 +32983,7 @@
         <v>1994</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="1"/>
@@ -32748,7 +33007,7 @@
         <v>1992</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>1910</v>
@@ -32776,7 +33035,7 @@
         <v>1993</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -32800,7 +33059,7 @@
         <v>1835</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>1911</v>
@@ -32828,7 +33087,7 @@
         <v>1836</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1"/>
@@ -32852,7 +33111,7 @@
         <v>1837</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="1"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD8B17C-2FC5-46A7-991C-162B47681084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0ED35-F818-4E9B-BF60-668963994AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="3779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="3782">
   <si>
     <t>myself</t>
   </si>
@@ -13107,17 +13107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱动配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base fields</t>
-  </si>
-  <si>
     <t>字段来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14269,6 +14262,26 @@
   </si>
   <si>
     <t>Double-click the cell to configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configureField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16211,13 +16224,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -16225,13 +16238,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -16239,13 +16252,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
   </sheetData>
@@ -16512,10 +16525,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16526,10 +16539,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17655,13 +17668,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -17669,13 +17682,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -17683,13 +17696,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -17697,13 +17710,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -17711,13 +17724,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -19607,7 +19620,7 @@
         <v>1280</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -19621,7 +19634,7 @@
         <v>1281</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -19635,7 +19648,7 @@
         <v>1282</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -19649,7 +19662,7 @@
         <v>1283</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -19663,7 +19676,7 @@
         <v>1284</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -19677,7 +19690,7 @@
         <v>1285</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -19691,7 +19704,7 @@
         <v>1286</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -19705,7 +19718,7 @@
         <v>1287</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -19733,7 +19746,7 @@
         <v>1288</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -19747,7 +19760,7 @@
         <v>1289</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -19845,7 +19858,7 @@
         <v>1844</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -19859,7 +19872,7 @@
         <v>1845</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -19887,7 +19900,7 @@
         <v>1847</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -19895,13 +19908,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -19909,13 +19922,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -19923,13 +19936,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -19937,13 +19950,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -19951,13 +19964,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
@@ -19965,13 +19978,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -19979,13 +19992,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -19993,13 +20006,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -20007,13 +20020,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -20021,13 +20034,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -20035,13 +20048,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -20049,13 +20062,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -20063,13 +20076,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -20077,13 +20090,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -20091,13 +20104,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -20105,13 +20118,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -20119,13 +20132,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -20133,13 +20146,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -20147,13 +20160,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -20161,13 +20174,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -20175,13 +20188,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -20189,13 +20202,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -20203,13 +20216,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -20217,13 +20230,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -20231,13 +20244,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -20245,13 +20258,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -20259,13 +20272,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -20273,13 +20286,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -20287,13 +20300,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -20301,13 +20314,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -20315,13 +20328,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -20329,13 +20342,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -20343,13 +20356,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -20357,13 +20370,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -20377,7 +20390,7 @@
         <v>2484</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -20405,7 +20418,7 @@
         <v>2485</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -20419,7 +20432,7 @@
         <v>2486</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -20489,7 +20502,7 @@
         <v>2487</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -20517,7 +20530,7 @@
         <v>2489</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -20531,7 +20544,7 @@
         <v>2490</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -20545,7 +20558,7 @@
         <v>2491</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -20559,7 +20572,7 @@
         <v>2492</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -20601,7 +20614,7 @@
         <v>2493</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -20615,7 +20628,7 @@
         <v>2494</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -20643,7 +20656,7 @@
         <v>2495</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -20657,7 +20670,7 @@
         <v>2496</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -20671,7 +20684,7 @@
         <v>2497</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -20685,7 +20698,7 @@
         <v>2561</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -20699,7 +20712,7 @@
         <v>2562</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -20713,7 +20726,7 @@
         <v>2563</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -20727,7 +20740,7 @@
         <v>2564</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -20741,7 +20754,7 @@
         <v>2565</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -20755,7 +20768,7 @@
         <v>2566</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -20769,7 +20782,7 @@
         <v>2567</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -20783,7 +20796,7 @@
         <v>2568</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -20797,7 +20810,7 @@
         <v>2569</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -20811,7 +20824,7 @@
         <v>2570</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -20825,7 +20838,7 @@
         <v>2571</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -20839,7 +20852,7 @@
         <v>2572</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -20853,7 +20866,7 @@
         <v>2573</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -20867,7 +20880,7 @@
         <v>2574</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -20881,7 +20894,7 @@
         <v>2575</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -20895,7 +20908,7 @@
         <v>2576</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -20909,7 +20922,7 @@
         <v>2577</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -20923,7 +20936,7 @@
         <v>2578</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -20937,7 +20950,7 @@
         <v>2579</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -20951,7 +20964,7 @@
         <v>2580</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -20979,7 +20992,7 @@
         <v>2498</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -20993,7 +21006,7 @@
         <v>2499</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -21007,7 +21020,7 @@
         <v>2500</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -21021,7 +21034,7 @@
         <v>2501</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -21035,7 +21048,7 @@
         <v>2502</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -21049,7 +21062,7 @@
         <v>2503</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -21063,7 +21076,7 @@
         <v>2504</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -21077,7 +21090,7 @@
         <v>2505</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -21091,7 +21104,7 @@
         <v>2506</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -21105,7 +21118,7 @@
         <v>2507</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -21119,7 +21132,7 @@
         <v>2508</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -21133,7 +21146,7 @@
         <v>2509</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -21245,7 +21258,7 @@
         <v>2517</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -21357,7 +21370,7 @@
         <v>2525</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -21371,7 +21384,7 @@
         <v>2526</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -21385,7 +21398,7 @@
         <v>2527</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -21399,7 +21412,7 @@
         <v>2528</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -21413,7 +21426,7 @@
         <v>2529</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -21424,10 +21437,10 @@
         <v>2102</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -21438,10 +21451,10 @@
         <v>2103</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -21452,10 +21465,10 @@
         <v>2104</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -21466,10 +21479,10 @@
         <v>2105</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -21480,10 +21493,10 @@
         <v>2116</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -21494,10 +21507,10 @@
         <v>2106</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -21508,10 +21521,10 @@
         <v>2107</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -21522,10 +21535,10 @@
         <v>2108</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -21536,10 +21549,10 @@
         <v>2109</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -21550,10 +21563,10 @@
         <v>2110</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -21564,10 +21577,10 @@
         <v>2122</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -21578,10 +21591,10 @@
         <v>2123</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -21592,10 +21605,10 @@
         <v>2111</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -21606,10 +21619,10 @@
         <v>2169</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="D350" s="22" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -21623,7 +21636,7 @@
         <v>2179</v>
       </c>
       <c r="D351" s="22" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -21637,7 +21650,7 @@
         <v>2181</v>
       </c>
       <c r="D352" s="22" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -21819,7 +21832,7 @@
         <v>2173</v>
       </c>
       <c r="D365" s="22" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -21833,7 +21846,7 @@
         <v>2175</v>
       </c>
       <c r="D366" s="22" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -21847,7 +21860,7 @@
         <v>2177</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -21875,7 +21888,7 @@
         <v>2186</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -21889,7 +21902,7 @@
         <v>2188</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
   </sheetData>
@@ -21901,10 +21914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D656"/>
+  <dimension ref="A1:D657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A638" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C661" sqref="C661"/>
+    <sheetView topLeftCell="A638" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22636,10 +22649,10 @@
         <v>1041</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -22720,7 +22733,7 @@
         <v>1063</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2626</v>
@@ -23893,7 +23906,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3235</v>
@@ -23907,7 +23920,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3237</v>
@@ -23921,7 +23934,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>736</v>
@@ -23935,10 +23948,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>3288</v>
@@ -25957,7 +25970,7 @@
         <v>1472</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -27939,13 +27952,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D431" s="1" t="s">
         <v>3495</v>
-      </c>
-      <c r="C431" s="9" t="s">
-        <v>3496</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>3497</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -29759,13 +29772,13 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="D561" s="9" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -31047,13 +31060,13 @@
         <v>652</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
       <c r="C653" s="18" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="D653" s="9" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -31061,10 +31074,10 @@
         <v>653</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="C654" s="18" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="D654" s="9" t="s">
         <v>851</v>
@@ -31075,13 +31088,13 @@
         <v>654</v>
       </c>
       <c r="B655" s="5" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C655" s="18" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D655" s="9" t="s">
         <v>3771</v>
-      </c>
-      <c r="C655" s="18" t="s">
-        <v>3772</v>
-      </c>
-      <c r="D655" s="9" t="s">
-        <v>3773</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -31089,12 +31102,26 @@
         <v>655</v>
       </c>
       <c r="B656" s="5" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C656" s="18" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D656" s="9" t="s">
         <v>3776</v>
       </c>
-      <c r="C656" s="18" t="s">
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="15">
+        <v>656</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C657" s="18" t="s">
         <v>3777</v>
       </c>
-      <c r="D656" s="9" t="s">
+      <c r="D657" s="9" t="s">
         <v>3778</v>
       </c>
     </row>
@@ -31109,8 +31136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32079,10 +32106,10 @@
         <v>3438</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -32099,10 +32126,10 @@
         <v>3483</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3484</v>
+        <v>3780</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>3486</v>
+        <v>3781</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -32119,7 +32146,7 @@
         <v>3483</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>3188</v>
@@ -32156,13 +32183,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -32176,13 +32203,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>3757</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>3759</v>
-      </c>
       <c r="D53" s="9" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -32196,13 +32223,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -32216,13 +32243,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="E55" s="1">
         <v>4</v>
@@ -32236,7 +32263,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>2710</v>
@@ -32256,13 +32283,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>3768</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>3769</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>3770</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -32343,7 +32370,7 @@
         <v>1836</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>1885</v>
@@ -32395,7 +32422,7 @@
         <v>1817</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>1887</v>
@@ -32421,7 +32448,7 @@
         <v>1818</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1888</v>
@@ -32449,7 +32476,7 @@
         <v>1819</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1889</v>
@@ -32477,7 +32504,7 @@
         <v>1837</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1890</v>
@@ -32505,7 +32532,7 @@
         <v>1820</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1891</v>
@@ -32533,7 +32560,7 @@
         <v>1821</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>1892</v>
@@ -32589,7 +32616,7 @@
         <v>1822</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>1894</v>
@@ -32617,7 +32644,7 @@
         <v>1823</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>1895</v>
@@ -32645,7 +32672,7 @@
         <v>1824</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1896</v>
@@ -32673,7 +32700,7 @@
         <v>1825</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1897</v>
@@ -32701,7 +32728,7 @@
         <v>1826</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>1898</v>
@@ -32729,7 +32756,7 @@
         <v>1827</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1899</v>
@@ -32757,7 +32784,7 @@
         <v>1828</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>1900</v>
@@ -32785,7 +32812,7 @@
         <v>1829</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1901</v>
@@ -32813,7 +32840,7 @@
         <v>1839</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>1902</v>
@@ -32841,7 +32868,7 @@
         <v>1830</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>1903</v>
@@ -32869,7 +32896,7 @@
         <v>1840</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>1899</v>
@@ -32897,7 +32924,7 @@
         <v>1831</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>1904</v>
@@ -32925,7 +32952,7 @@
         <v>1832</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>1905</v>
@@ -32953,7 +32980,7 @@
         <v>1842</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>1906</v>
@@ -32981,7 +33008,7 @@
         <v>1993</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>1907</v>
@@ -33009,7 +33036,7 @@
         <v>1992</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="1"/>
@@ -33033,7 +33060,7 @@
         <v>1990</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>1908</v>
@@ -33061,7 +33088,7 @@
         <v>1991</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -33085,7 +33112,7 @@
         <v>1833</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>1909</v>
@@ -33113,7 +33140,7 @@
         <v>1834</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1"/>
@@ -33137,7 +33164,7 @@
         <v>1835</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="1"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F7682-01D6-4F58-9484-7D86FF69ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505252DE-E175-4E59-AEDA-B19704C7A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="3785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="3788">
   <si>
     <t>myself</t>
   </si>
@@ -14292,6 +14292,18 @@
   </si>
   <si>
     <t>日汇总计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolSaveConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称或地址出现重复，保存将会覆盖，是否继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If there is a duplicate name or address, the save will be overwritten, do you want to continue?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21924,10 +21936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D657"/>
+  <dimension ref="A1:D658"/>
   <sheetViews>
-    <sheetView topLeftCell="A638" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B661" sqref="B661"/>
+    <sheetView tabSelected="1" topLeftCell="C638" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D662" sqref="D662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31135,6 +31147,20 @@
         <v>3771</v>
       </c>
     </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="15">
+        <v>657</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C658" s="18" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D658" s="9" t="s">
+        <v>3787</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31146,7 +31172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505252DE-E175-4E59-AEDA-B19704C7A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A3409-FE4B-4C06-A31D-DE2AA9447C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="3788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="3791">
   <si>
     <t>myself</t>
   </si>
@@ -14304,6 +14304,18 @@
   </si>
   <si>
     <t>If there is a duplicate name or address, the save will be overwritten, do you want to continue?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitionData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data collected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21936,10 +21948,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D658"/>
+  <dimension ref="A1:D659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C638" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D662" sqref="D662"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23984,13 +23996,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>2691</v>
+        <v>3788</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>3790</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -23998,13 +24010,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>2692</v>
+        <v>714</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>1973</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -24012,13 +24024,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>1368</v>
+        <v>158</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>2692</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -24026,13 +24038,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>2695</v>
+        <v>1368</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -24040,13 +24052,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>3467</v>
+        <v>160</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>3465</v>
+        <v>2695</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>3466</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -24054,13 +24066,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>161</v>
+        <v>3467</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>2697</v>
+        <v>3465</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>2698</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -24068,13 +24080,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>1369</v>
+        <v>2697</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -24082,13 +24094,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -24096,13 +24108,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -24110,13 +24122,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>790</v>
+        <v>164</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24124,13 +24136,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>2703</v>
+        <v>790</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>1372</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -24138,13 +24150,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>1373</v>
+        <v>791</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>2703</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -24152,13 +24164,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>1974</v>
+        <v>1373</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -24166,13 +24178,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>165</v>
+        <v>793</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>2707</v>
+        <v>1974</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>804</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -24180,13 +24192,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>852</v>
+        <v>804</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -24194,13 +24206,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>2710</v>
+        <v>166</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>2708</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>2711</v>
+        <v>852</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -24208,13 +24220,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -24222,13 +24234,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>1374</v>
+        <v>782</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>2709</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -24236,13 +24248,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -24250,13 +24262,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>1975</v>
+        <v>1375</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>3254</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -24264,13 +24276,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>2715</v>
+        <v>1975</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>2716</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -24278,13 +24290,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>1376</v>
+        <v>2715</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24292,13 +24304,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -24306,13 +24318,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>167</v>
+        <v>787</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -24320,13 +24332,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>2720</v>
+        <v>1378</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -24334,13 +24346,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>493</v>
+        <v>336</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>1379</v>
+        <v>2720</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -24348,13 +24360,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -24362,13 +24374,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>168</v>
+        <v>494</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>2724</v>
+        <v>1380</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -24376,13 +24388,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>2726</v>
+        <v>168</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>2725</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -24390,13 +24402,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>2727</v>
+        <v>1095</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D175" s="19" t="s">
+        <v>2726</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -24404,13 +24416,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -24418,13 +24430,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -24432,13 +24444,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>2730</v>
+        <v>1383</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -24446,13 +24458,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>1384</v>
+        <v>2730</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -24460,13 +24472,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>329</v>
+        <v>172</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>2733</v>
+        <v>1384</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -24474,13 +24486,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>1385</v>
+        <v>2733</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -24488,13 +24500,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>2736</v>
+        <v>1385</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -24502,13 +24514,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>1386</v>
+        <v>2736</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -24516,13 +24528,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>334</v>
+        <v>174</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>2737</v>
+        <v>1386</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -24530,13 +24542,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>1387</v>
+        <v>2737</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -24544,13 +24556,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>2744</v>
-      </c>
-      <c r="D186" s="19" t="s">
-        <v>3320</v>
+        <v>175</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>2741</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -24558,13 +24570,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>2742</v>
+        <v>176</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>3320</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -24572,13 +24584,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>3322</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -24586,13 +24598,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -24600,13 +24612,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>2743</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -24614,13 +24626,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>853</v>
+        <v>180</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>2743</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -24628,13 +24640,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>3197</v>
+        <v>1392</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>2745</v>
+        <v>853</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -24642,13 +24654,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>940</v>
+        <v>182</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -24656,13 +24668,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>2747</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>2748</v>
+        <v>940</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>2746</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -24670,13 +24682,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1393</v>
+        <v>2747</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -24684,13 +24696,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -24698,13 +24710,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>3199</v>
-      </c>
-      <c r="D197" s="19" t="s">
-        <v>2751</v>
+        <v>185</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>2750</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -24712,13 +24724,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2752</v>
+        <v>186</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -24726,13 +24738,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>2753</v>
+        <v>1395</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -24740,13 +24752,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -24754,13 +24766,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>3200</v>
-      </c>
-      <c r="D201" s="19" t="s">
-        <v>2757</v>
+        <v>189</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>2756</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -24768,13 +24780,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>854</v>
+        <v>190</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>2757</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -24782,13 +24794,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>3201</v>
-      </c>
-      <c r="D203" s="19" t="s">
-        <v>2758</v>
+        <v>191</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -24796,13 +24808,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>2759</v>
+        <v>192</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>2758</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -24810,13 +24822,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -24824,13 +24836,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1079</v>
+        <v>193</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>2761</v>
+        <v>1398</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -24838,13 +24850,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>196</v>
+        <v>1079</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>1399</v>
+        <v>2761</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>855</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -24852,13 +24864,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>2763</v>
+        <v>855</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -24866,13 +24878,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -24880,13 +24892,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -24894,13 +24906,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -24908,13 +24920,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>3255</v>
+        <v>1403</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>3256</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -24922,13 +24934,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>3202</v>
-      </c>
-      <c r="D213" s="19" t="s">
-        <v>2767</v>
+        <v>209</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>3256</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -24936,13 +24948,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>3195</v>
+        <v>529</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>2767</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -24950,13 +24962,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>3196</v>
+        <v>534</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>3195</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -24964,13 +24976,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>2768</v>
+        <v>535</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>3196</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -24978,13 +24990,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>2769</v>
+        <v>1406</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>530</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -24992,13 +25004,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -25006,13 +25018,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>229</v>
+        <v>533</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>1407</v>
+        <v>2770</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>2771</v>
+        <v>531</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -25020,13 +25032,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>2772</v>
+        <v>1407</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -25034,13 +25046,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>1408</v>
+        <v>2772</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -25048,13 +25060,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -25062,13 +25074,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -25076,13 +25088,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -25090,13 +25102,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -25104,13 +25116,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -25118,13 +25130,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>938</v>
+        <v>230</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -25132,13 +25144,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -25146,13 +25158,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>231</v>
+        <v>939</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -25160,13 +25172,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>537</v>
+        <v>231</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -25174,13 +25186,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -25188,13 +25200,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>232</v>
+        <v>538</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -25202,13 +25214,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>856</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -25216,13 +25228,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -25230,13 +25242,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>2786</v>
+        <v>857</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -25244,13 +25256,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -25258,13 +25270,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -25272,13 +25284,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -25286,13 +25298,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>2790</v>
+        <v>1425</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -25300,13 +25312,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>1426</v>
+        <v>2790</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -25314,13 +25326,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>2792</v>
+        <v>1426</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -25328,13 +25340,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>1427</v>
+        <v>2792</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -25342,13 +25354,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>858</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -25356,13 +25368,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>2796</v>
+        <v>1428</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>2797</v>
+        <v>858</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -25370,13 +25382,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>1429</v>
+        <v>2796</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -25384,13 +25396,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -25398,13 +25410,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>859</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -25412,13 +25424,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>2800</v>
+        <v>859</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -25426,13 +25438,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -25440,13 +25452,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -25454,13 +25466,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -25468,13 +25480,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>2804</v>
+        <v>1435</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -25482,13 +25494,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>1436</v>
+        <v>2804</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -25496,13 +25508,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -25510,13 +25522,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -25524,13 +25536,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -25538,13 +25550,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -25552,13 +25564,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -25566,13 +25578,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -25580,13 +25592,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>860</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -25594,13 +25606,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>2813</v>
+        <v>860</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -25608,13 +25620,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -25622,13 +25634,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -25636,13 +25648,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -25650,13 +25662,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -25664,13 +25676,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -25678,13 +25690,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -25692,13 +25704,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -25706,13 +25718,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -25720,13 +25732,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -25734,13 +25746,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -25748,13 +25760,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1089</v>
+        <v>267</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -25762,13 +25774,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -25776,13 +25788,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -25790,13 +25802,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>275</v>
+        <v>1090</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -25804,13 +25816,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -25818,13 +25830,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -25832,13 +25844,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -25846,13 +25858,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -25860,13 +25872,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -25874,13 +25886,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>942</v>
+        <v>280</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -25888,13 +25900,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -25902,13 +25914,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>314</v>
+        <v>941</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -25916,13 +25928,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>943</v>
+        <v>314</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -25930,13 +25942,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -25944,13 +25956,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -25958,13 +25970,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -25972,13 +25984,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -25986,13 +25998,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>281</v>
+        <v>948</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3500</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -26000,13 +26012,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>2841</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -26014,13 +26026,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -26028,13 +26040,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -26042,13 +26054,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>3128</v>
+        <v>1475</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>3129</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -26056,13 +26068,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>1476</v>
+        <v>3128</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>2844</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -26070,13 +26082,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -26084,13 +26096,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -26098,13 +26110,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>945</v>
+        <v>290</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -26112,13 +26124,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -26126,13 +26138,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -26140,13 +26152,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -26154,13 +26166,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -26168,13 +26180,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>291</v>
+        <v>957</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -26182,13 +26194,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -26196,13 +26208,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -26210,13 +26222,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -26224,13 +26236,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>3130</v>
+        <v>1487</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>3131</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -26238,13 +26250,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>1488</v>
+        <v>3130</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>2856</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -26252,13 +26264,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -26266,13 +26278,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>950</v>
+        <v>297</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -26280,13 +26292,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -26294,13 +26306,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -26308,13 +26320,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -26322,13 +26334,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -26336,13 +26348,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>521</v>
+        <v>953</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -26350,13 +26362,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -26364,13 +26376,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -26378,13 +26390,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -26392,13 +26404,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -26406,13 +26418,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -26420,13 +26432,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>546</v>
+        <v>301</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -26434,13 +26446,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>302</v>
+        <v>546</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -26448,13 +26460,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -26462,13 +26474,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -26476,13 +26488,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -26490,13 +26502,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>547</v>
+        <v>304</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -26504,13 +26516,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>305</v>
+        <v>547</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -26518,13 +26530,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -26532,13 +26544,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -26546,13 +26558,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -26560,13 +26572,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C330" s="18" t="s">
-        <v>1691</v>
+        <v>307</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>1510</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>867</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -26574,13 +26586,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>1511</v>
+        <v>308</v>
+      </c>
+      <c r="C331" s="18" t="s">
+        <v>1691</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>2879</v>
+        <v>867</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -26588,13 +26600,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>552</v>
+        <v>298</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -26602,13 +26614,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>2638</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -26616,13 +26628,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -26630,13 +26642,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>2881</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -26644,13 +26656,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>3132</v>
+        <v>1515</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>3133</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -26658,13 +26670,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>1516</v>
+        <v>3132</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>2882</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -26672,13 +26684,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -26686,13 +26698,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>314</v>
+        <v>544</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -26700,13 +26712,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -26714,13 +26726,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -26728,13 +26740,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -26742,13 +26754,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C343" s="23" t="s">
-        <v>3203</v>
-      </c>
-      <c r="D343" s="19" t="s">
-        <v>3134</v>
+        <v>317</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>2887</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -26756,13 +26768,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C344" s="18" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D344" s="20" t="s">
-        <v>2888</v>
+        <v>335</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D344" s="19" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -26770,13 +26782,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>2889</v>
+        <v>1976</v>
+      </c>
+      <c r="D345" s="20" t="s">
+        <v>2888</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -26784,13 +26796,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C346" s="18" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -26798,13 +26810,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C347" s="18" t="s">
-        <v>1977</v>
+        <v>1523</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -26812,13 +26824,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -26826,13 +26838,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C349" s="18" t="s">
-        <v>1524</v>
+        <v>1978</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -26840,13 +26852,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C350" s="18" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -26854,13 +26866,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C351" s="9" t="s">
-        <v>1526</v>
+        <v>324</v>
+      </c>
+      <c r="C351" s="18" t="s">
+        <v>1525</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -26868,13 +26880,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>960</v>
+        <v>325</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -26882,13 +26894,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -26896,13 +26908,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -26910,13 +26922,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -26924,13 +26936,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -26938,13 +26950,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="C357" s="23" t="s">
-        <v>3204</v>
-      </c>
-      <c r="D357" s="19" t="s">
-        <v>3135</v>
+        <v>961</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -26952,13 +26964,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="C358" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>2901</v>
+        <v>962</v>
+      </c>
+      <c r="C358" s="23" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D358" s="19" t="s">
+        <v>3135</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -26966,13 +26978,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1073</v>
+        <v>963</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -26980,13 +26992,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>1979</v>
+        <v>1533</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -26994,13 +27006,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="C361" s="23" t="s">
-        <v>3205</v>
-      </c>
-      <c r="D361" s="19" t="s">
-        <v>3136</v>
+        <v>1074</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>2903</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -27008,13 +27020,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C362" s="9" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>2904</v>
+        <v>964</v>
+      </c>
+      <c r="C362" s="23" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D362" s="19" t="s">
+        <v>3136</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -27022,13 +27034,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -27036,13 +27048,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -27050,13 +27062,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -27064,13 +27076,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -27078,13 +27090,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -27092,13 +27104,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -27106,13 +27118,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -27120,13 +27132,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>965</v>
+        <v>1087</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -27134,13 +27146,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -27148,13 +27160,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -27162,13 +27174,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -27176,13 +27188,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -27190,13 +27202,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -27204,13 +27216,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -27218,13 +27230,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -27232,13 +27244,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -27246,13 +27258,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1075</v>
+        <v>973</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -27260,13 +27272,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -27274,13 +27286,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C381" s="23" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D381" s="19" t="s">
-        <v>3137</v>
+        <v>1076</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>2922</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -27288,13 +27300,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C382" s="9" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>2923</v>
+        <v>1078</v>
+      </c>
+      <c r="C382" s="23" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D382" s="19" t="s">
+        <v>3137</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -27302,13 +27314,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -27316,13 +27328,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1050</v>
+        <v>365</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -27330,13 +27342,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>366</v>
+        <v>1050</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -27344,13 +27356,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -27358,13 +27370,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>716</v>
+        <v>367</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>1980</v>
+        <v>1557</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -27372,13 +27384,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>340</v>
+        <v>716</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>1558</v>
+        <v>1980</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>3311</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -27386,13 +27398,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>2929</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -27400,13 +27412,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>1984</v>
+        <v>1559</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -27414,13 +27426,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>1560</v>
+        <v>1984</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>3288</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -27428,13 +27440,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>1130</v>
+        <v>1560</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>2931</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -27442,13 +27454,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>344</v>
+        <v>8</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>1561</v>
+        <v>1130</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>3312</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -27456,13 +27468,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>2932</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -27470,13 +27482,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -27484,13 +27496,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>1985</v>
+        <v>1563</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -27498,13 +27510,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1060</v>
+        <v>347</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>1564</v>
+        <v>1985</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -27512,13 +27524,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -27526,13 +27538,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>348</v>
+        <v>1059</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>348</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -27540,13 +27552,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C400" s="9" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>2937</v>
+        <v>348</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -27554,13 +27566,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C401" s="9" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>3313</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -27568,13 +27580,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>2938</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -27582,13 +27594,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>3314</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -27596,13 +27608,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>2939</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -27610,13 +27622,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>3315</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -27624,13 +27636,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -27638,13 +27650,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -27652,13 +27664,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C408" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>2940</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -27666,13 +27678,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -27680,13 +27692,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>3474</v>
+        <v>1576</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>3475</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -27694,13 +27706,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>1577</v>
+        <v>3474</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>2942</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -27708,13 +27720,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C412" s="9" t="s">
-        <v>3138</v>
+        <v>1577</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>861</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -27722,13 +27734,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>1578</v>
+        <v>3138</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>2943</v>
+        <v>861</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -27736,13 +27748,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>1986</v>
+        <v>1578</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -27750,13 +27762,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>1579</v>
+        <v>1986</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -27764,13 +27776,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C416" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -27778,13 +27790,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -27792,13 +27804,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -27806,13 +27818,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -27820,13 +27832,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>525</v>
+        <v>371</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -27834,13 +27846,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -27848,13 +27860,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>1112</v>
+        <v>1585</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>3318</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -27862,13 +27874,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1056</v>
+        <v>527</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>1586</v>
+        <v>1112</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>2953</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -27876,13 +27888,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>372</v>
+        <v>1056</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>1113</v>
+        <v>1586</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -27890,13 +27902,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>1587</v>
+        <v>1113</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -27904,13 +27916,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -27918,13 +27930,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>3139</v>
+        <v>1588</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>862</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -27932,13 +27944,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>1589</v>
+        <v>3139</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>2957</v>
+        <v>862</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -27946,13 +27958,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -27960,13 +27972,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -27974,13 +27986,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>3486</v>
+        <v>376</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>3487</v>
+        <v>1591</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>3488</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -27988,13 +28000,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>377</v>
+        <v>3486</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>1592</v>
+        <v>3487</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>2960</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -28002,13 +28014,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1057</v>
+        <v>377</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -28016,13 +28028,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>378</v>
+        <v>1057</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>3140</v>
+        <v>1593</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>3141</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -28030,13 +28042,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>863</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -28044,13 +28056,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>1114</v>
+        <v>3142</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>2962</v>
+        <v>863</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -28058,13 +28070,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>1594</v>
+        <v>1114</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -28072,13 +28084,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>715</v>
+        <v>383</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -28086,13 +28098,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>384</v>
+        <v>715</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -28100,13 +28112,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1027</v>
+        <v>384</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>3143</v>
+        <v>1596</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1028</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -28114,13 +28126,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>1597</v>
+        <v>3143</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>2966</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -28128,13 +28140,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>3144</v>
+        <v>1597</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>3145</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -28142,13 +28154,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>1598</v>
+        <v>3144</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>2967</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -28156,13 +28168,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -28170,13 +28182,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>386</v>
+        <v>1051</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -28184,13 +28196,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -28198,13 +28210,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -28212,13 +28224,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -28226,13 +28238,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>3259</v>
+        <v>389</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>3257</v>
+        <v>1603</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>3261</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -28240,13 +28252,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -28254,13 +28266,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>390</v>
+        <v>3260</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>1604</v>
+        <v>3258</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>2973</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -28268,27 +28280,27 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>2035</v>
+        <v>390</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D452" s="9" t="s">
-        <v>2974</v>
+        <v>1604</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>2973</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="15">
         <v>452</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C453" s="22" t="s">
-        <v>2115</v>
+      <c r="B453" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>2036</v>
       </c>
       <c r="D453" s="9" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -28296,27 +28308,27 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>2205</v>
+        <v>2114</v>
       </c>
       <c r="C454" s="22" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D454" s="9" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="15">
         <v>454</v>
       </c>
-      <c r="B455" s="5" t="s">
-        <v>2117</v>
+      <c r="B455" s="1" t="s">
+        <v>2205</v>
       </c>
       <c r="C455" s="22" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -28324,13 +28336,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="C456" s="22" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -28338,13 +28350,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>2200</v>
-      </c>
-      <c r="C457" s="9" t="s">
-        <v>2201</v>
+        <v>2122</v>
+      </c>
+      <c r="C457" s="22" t="s">
+        <v>2123</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -28352,13 +28364,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>2203</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -28366,13 +28378,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -28380,13 +28392,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>3440</v>
-      </c>
-      <c r="C460" s="25" t="s">
-        <v>3441</v>
-      </c>
-      <c r="D460" s="25" t="s">
-        <v>3442</v>
+        <v>2208</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D460" s="9" t="s">
+        <v>2207</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -28394,13 +28406,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>2214</v>
-      </c>
-      <c r="C461" s="9" t="s">
-        <v>2215</v>
-      </c>
-      <c r="D461" s="9" t="s">
-        <v>2980</v>
+        <v>3440</v>
+      </c>
+      <c r="C461" s="25" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D461" s="25" t="s">
+        <v>3442</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -28408,13 +28420,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>391</v>
+        <v>2214</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>2981</v>
+        <v>2215</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>2980</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -28422,13 +28434,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>1115</v>
+        <v>1605</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -28436,13 +28448,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>3146</v>
+        <v>1115</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>3151</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -28450,13 +28462,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -28464,13 +28476,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -28478,13 +28490,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -28492,13 +28504,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>2983</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -28506,13 +28518,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>1116</v>
+        <v>3150</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>3323</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -28520,13 +28532,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C470" s="9" t="s">
-        <v>3155</v>
+        <v>1116</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>3156</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -28534,13 +28546,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C471" s="9" t="s">
-        <v>1981</v>
+        <v>3155</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>2985</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -28548,13 +28560,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>3324</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -28562,13 +28574,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -28576,13 +28588,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C474" s="9" t="s">
-        <v>1606</v>
+        <v>1983</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -28590,13 +28602,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>3468</v>
+        <v>403</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>3469</v>
-      </c>
-      <c r="D475" s="9" t="s">
-        <v>3472</v>
+        <v>1606</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>3326</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -28604,13 +28616,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -28618,13 +28630,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>404</v>
+        <v>3470</v>
       </c>
       <c r="C477" s="9" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D477" s="1" t="s">
-        <v>2988</v>
+        <v>3471</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>3473</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -28632,13 +28644,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>2179</v>
+        <v>1607</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -28646,13 +28658,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>2156</v>
+        <v>405</v>
       </c>
       <c r="C479" s="9" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>2990</v>
+        <v>2179</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>2989</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -28660,13 +28672,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C480" s="9" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -28674,13 +28686,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -28688,13 +28700,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="C482" s="9" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -28702,13 +28714,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="C483" s="9" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -28716,13 +28728,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>406</v>
+        <v>2163</v>
       </c>
       <c r="C484" s="9" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>2995</v>
+        <v>2165</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>2994</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -28730,13 +28742,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>771</v>
+        <v>406</v>
       </c>
       <c r="C485" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -28744,13 +28756,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>407</v>
+        <v>771</v>
       </c>
       <c r="C486" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -28758,13 +28770,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C487" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -28772,13 +28784,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>773</v>
+        <v>408</v>
       </c>
       <c r="C488" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -28786,13 +28798,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>2209</v>
+        <v>773</v>
       </c>
       <c r="C489" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -28800,13 +28812,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>409</v>
+        <v>2209</v>
       </c>
       <c r="C490" s="9" t="s">
-        <v>3157</v>
+        <v>1613</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>864</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -28814,13 +28826,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C491" s="9" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -28828,13 +28840,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>528</v>
+        <v>410</v>
       </c>
       <c r="C492" s="9" t="s">
-        <v>1614</v>
+        <v>3158</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>3001</v>
+        <v>865</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -28842,13 +28854,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>2125</v>
+        <v>528</v>
       </c>
       <c r="C493" s="9" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D493" s="9" t="s">
-        <v>3002</v>
+        <v>1614</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>3001</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -28856,13 +28868,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>2210</v>
-      </c>
-      <c r="C494" s="22" t="s">
-        <v>2211</v>
+        <v>2125</v>
+      </c>
+      <c r="C494" s="9" t="s">
+        <v>2126</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -28870,13 +28882,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C495" s="22" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -28884,13 +28896,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C496" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>3005</v>
+        <v>2212</v>
+      </c>
+      <c r="C496" s="22" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>3004</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -28898,13 +28910,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C497" s="9" t="s">
-        <v>1615</v>
+        <v>1120</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -28912,13 +28924,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C498" s="9" t="s">
-        <v>1121</v>
+        <v>1615</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>3337</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -28926,13 +28938,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C499" s="9" t="s">
-        <v>3159</v>
+        <v>1121</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>3160</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -28940,13 +28952,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C500" s="9" t="s">
-        <v>1616</v>
+        <v>3159</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>3008</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -28954,13 +28966,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C501" s="9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -28968,13 +28980,13 @@
         <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C502" s="9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>3338</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -28982,13 +28994,13 @@
         <v>502</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C503" s="9" t="s">
-        <v>3161</v>
+        <v>1618</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>3162</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -28996,13 +29008,13 @@
         <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C504" s="9" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -29010,13 +29022,13 @@
         <v>504</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C505" s="9" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -29024,13 +29036,13 @@
         <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C506" s="9" t="s">
-        <v>1619</v>
+        <v>3164</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>3011</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -29038,13 +29050,13 @@
         <v>506</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C507" s="9" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -29052,13 +29064,13 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1052</v>
+        <v>419</v>
       </c>
       <c r="C508" s="9" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -29066,13 +29078,13 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C509" s="9" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -29080,13 +29092,13 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>423</v>
+        <v>1055</v>
       </c>
       <c r="C510" s="9" t="s">
-        <v>1119</v>
+        <v>1622</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>423</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -29094,13 +29106,13 @@
         <v>510</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C511" s="9" t="s">
-        <v>1623</v>
+        <v>1119</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>3016</v>
+        <v>423</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -29108,13 +29120,13 @@
         <v>511</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1015</v>
+        <v>430</v>
       </c>
       <c r="C512" s="9" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -29122,13 +29134,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>424</v>
+        <v>1015</v>
       </c>
       <c r="C513" s="9" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -29136,13 +29148,13 @@
         <v>513</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C514" s="9" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -29150,13 +29162,13 @@
         <v>514</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C515" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>429</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -29164,13 +29176,13 @@
         <v>515</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C516" s="9" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>3020</v>
+        <v>429</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -29178,13 +29190,13 @@
         <v>516</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C517" s="9" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -29192,13 +29204,13 @@
         <v>517</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C518" s="9" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -29206,13 +29218,13 @@
         <v>518</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C519" s="9" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -29220,13 +29232,13 @@
         <v>519</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C520" s="9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -29234,13 +29246,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="C521" s="9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -29248,13 +29260,13 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C522" s="9" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -29262,13 +29274,13 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C523" s="9" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -29276,13 +29288,13 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C524" s="9" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -29290,13 +29302,13 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C525" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -29304,13 +29316,13 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C526" s="9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -29318,13 +29330,13 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C527" s="9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -29332,13 +29344,13 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C528" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -29346,13 +29358,13 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C529" s="9" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -29360,13 +29372,13 @@
         <v>529</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C530" s="9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -29374,13 +29386,13 @@
         <v>530</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C531" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -29388,13 +29400,13 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C532" s="9" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -29402,13 +29414,13 @@
         <v>532</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C533" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -29416,13 +29428,13 @@
         <v>533</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C534" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -29430,13 +29442,13 @@
         <v>534</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C535" s="9" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -29444,13 +29456,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C536" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -29458,13 +29470,13 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C537" s="9" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -29472,13 +29484,13 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C538" s="9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -29486,13 +29498,13 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C539" s="9" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -29500,13 +29512,13 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C540" s="9" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -29514,13 +29526,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C541" s="9" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -29528,13 +29540,13 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C542" s="9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -29542,13 +29554,13 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C543" s="9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -29556,13 +29568,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C544" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -29570,13 +29582,13 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C545" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -29584,13 +29596,13 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C546" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -29598,13 +29610,13 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C547" s="9" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -29612,13 +29624,13 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C548" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -29626,13 +29638,13 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C549" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -29640,13 +29652,13 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C550" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -29654,13 +29666,13 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C551" s="9" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -29668,13 +29680,13 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C552" s="9" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -29682,13 +29694,13 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C553" s="9" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -29696,13 +29708,13 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C554" s="9" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -29710,13 +29722,13 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C555" s="9" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>3353</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -29724,13 +29736,13 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C556" s="9" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>3059</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -29738,13 +29750,13 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C557" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -29752,13 +29764,13 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C558" s="9" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -29766,13 +29778,13 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C559" s="9" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -29780,13 +29792,13 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C560" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -29794,13 +29806,13 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>3480</v>
-      </c>
-      <c r="C561" s="18" t="s">
-        <v>3478</v>
-      </c>
-      <c r="D561" s="9" t="s">
-        <v>3479</v>
+        <v>505</v>
+      </c>
+      <c r="C561" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>3063</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -29808,13 +29820,13 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C562" s="9" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D562" s="1" t="s">
-        <v>3064</v>
+        <v>3480</v>
+      </c>
+      <c r="C562" s="18" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D562" s="9" t="s">
+        <v>3479</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -29822,13 +29834,13 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C563" s="9" t="s">
-        <v>3167</v>
+        <v>1673</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>866</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -29836,13 +29848,13 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C564" s="9" t="s">
-        <v>1675</v>
+        <v>3167</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>3065</v>
+        <v>866</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -29850,13 +29862,13 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C565" s="9" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -29864,13 +29876,13 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="C566" s="9" t="s">
-        <v>1512</v>
+        <v>1674</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>2880</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -29878,13 +29890,13 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C567" s="9" t="s">
-        <v>1675</v>
+        <v>1512</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>3067</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -29892,13 +29904,13 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C568" s="9" t="s">
-        <v>1513</v>
+        <v>1675</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>2638</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -29906,13 +29918,13 @@
         <v>568</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C569" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -29920,13 +29932,13 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C570" s="9" t="s">
-        <v>1676</v>
+        <v>1514</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>3068</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -29934,13 +29946,13 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C571" s="9" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -29948,13 +29960,13 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C572" s="9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -29962,13 +29974,13 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C573" s="9" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -29976,13 +29988,13 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="C574" s="9" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -29990,13 +30002,13 @@
         <v>574</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C575" s="9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -30004,13 +30016,13 @@
         <v>575</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C576" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -30018,13 +30030,13 @@
         <v>576</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C577" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -30032,13 +30044,13 @@
         <v>577</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C578" s="9" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -30046,13 +30058,13 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C579" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -30060,13 +30072,13 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C580" s="9" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -30074,13 +30086,13 @@
         <v>580</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C581" s="9" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -30088,13 +30100,13 @@
         <v>581</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C582" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -30102,13 +30114,13 @@
         <v>582</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C583" s="9" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -30116,13 +30128,13 @@
         <v>583</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -30130,13 +30142,13 @@
         <v>584</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>680</v>
+        <v>595</v>
       </c>
       <c r="C585" s="9" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>3270</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -30144,13 +30156,13 @@
         <v>585</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>935</v>
+        <v>680</v>
       </c>
       <c r="C586" s="9" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>3084</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -30158,13 +30170,13 @@
         <v>586</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C587" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -30172,13 +30184,13 @@
         <v>587</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="C588" s="13" t="s">
-        <v>3266</v>
-      </c>
-      <c r="D588" s="4" t="s">
-        <v>3268</v>
+        <v>934</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>3085</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -30186,13 +30198,13 @@
         <v>588</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -30200,13 +30212,13 @@
         <v>589</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="C590" s="9" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D590" s="1" t="s">
-        <v>3086</v>
+        <v>757</v>
+      </c>
+      <c r="C590" s="13" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D590" s="4" t="s">
+        <v>3267</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -30214,13 +30226,13 @@
         <v>590</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C591" s="9" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -30228,13 +30240,13 @@
         <v>591</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C592" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -30242,13 +30254,13 @@
         <v>592</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C593" s="9" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -30256,13 +30268,13 @@
         <v>593</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C594" s="9" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -30270,13 +30282,13 @@
         <v>594</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="C595" s="9" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -30284,13 +30296,13 @@
         <v>595</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C596" s="9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -30298,13 +30310,13 @@
         <v>596</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C597" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -30312,13 +30324,13 @@
         <v>597</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C598" s="9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -30326,13 +30338,13 @@
         <v>598</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C599" s="9" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -30340,13 +30352,13 @@
         <v>599</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C600" s="9" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -30354,13 +30366,13 @@
         <v>600</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C601" s="9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -30368,13 +30380,13 @@
         <v>601</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C602" s="9" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -30382,13 +30394,13 @@
         <v>602</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C603" s="9" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -30396,13 +30408,13 @@
         <v>603</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C604" s="9" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -30410,13 +30422,13 @@
         <v>604</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C605" s="9" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -30424,13 +30436,13 @@
         <v>605</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C606" s="9" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -30438,13 +30450,13 @@
         <v>606</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C607" s="9" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -30452,13 +30464,13 @@
         <v>607</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C608" s="9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -30466,13 +30478,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="C609" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -30480,13 +30492,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C610" s="9" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -30494,13 +30506,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C611" s="9" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -30508,13 +30520,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -30522,13 +30534,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C613" s="9" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -30536,13 +30548,13 @@
         <v>613</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C614" s="9" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -30550,13 +30562,13 @@
         <v>614</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -30564,27 +30576,27 @@
         <v>615</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="15">
         <v>616</v>
       </c>
-      <c r="B617" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="C617" s="13" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D617" s="4" t="s">
-        <v>3113</v>
+      <c r="B617" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>3112</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -30592,13 +30604,13 @@
         <v>617</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C618" s="13" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -30606,27 +30618,27 @@
         <v>618</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="C619" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D619" s="1" t="s">
-        <v>3115</v>
+        <v>931</v>
+      </c>
+      <c r="C619" s="13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>3114</v>
       </c>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="15">
         <v>619</v>
       </c>
-      <c r="B620" s="5" t="s">
-        <v>933</v>
+      <c r="B620" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="C620" s="9" t="s">
-        <v>3168</v>
+        <v>1724</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>3169</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -30634,13 +30646,13 @@
         <v>620</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1091</v>
+        <v>933</v>
       </c>
       <c r="C621" s="9" t="s">
-        <v>1725</v>
+        <v>3168</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>3116</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -30648,13 +30660,13 @@
         <v>621</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -30662,13 +30674,13 @@
         <v>622</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -30676,13 +30688,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -30690,13 +30702,13 @@
         <v>624</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C625" s="9" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -30704,13 +30716,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C626" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -30718,13 +30730,13 @@
         <v>626</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C627" s="9" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -30732,13 +30744,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -30746,13 +30758,13 @@
         <v>628</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C629" s="9" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -30760,13 +30772,13 @@
         <v>629</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C630" s="9" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -30774,13 +30786,13 @@
         <v>630</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -30788,41 +30800,41 @@
         <v>631</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" ht="15">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
       <c r="A633" s="15">
         <v>632</v>
       </c>
-      <c r="B633" s="24" t="s">
-        <v>3424</v>
-      </c>
-      <c r="C633" s="18" t="s">
-        <v>3388</v>
-      </c>
-      <c r="D633" s="24" t="s">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4">
+      <c r="B633" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C633" s="9" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="15">
       <c r="A634" s="15">
         <v>633</v>
       </c>
-      <c r="B634" s="1" t="s">
-        <v>3425</v>
-      </c>
-      <c r="C634" s="9" t="s">
-        <v>3390</v>
-      </c>
-      <c r="D634" s="1" t="s">
-        <v>3391</v>
+      <c r="B634" s="24" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C634" s="18" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D634" s="24" t="s">
+        <v>3389</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -30830,13 +30842,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>3395</v>
+        <v>3425</v>
       </c>
       <c r="C635" s="9" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>3395</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -30844,13 +30856,13 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="C636" s="9" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -30858,13 +30870,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>3399</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>3396</v>
+        <v>3394</v>
+      </c>
+      <c r="C637" s="9" t="s">
+        <v>3393</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>3399</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -30872,13 +30884,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -30886,13 +30898,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -30900,13 +30912,13 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>3423</v>
+        <v>3401</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>3422</v>
+        <v>3398</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>3423</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -30914,13 +30926,13 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>3404</v>
+        <v>3422</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>3405</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -30928,13 +30940,13 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -30942,13 +30954,13 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -30956,13 +30968,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -30970,13 +30982,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C645" s="18" t="s">
-        <v>3412</v>
+        <v>3429</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>3410</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -30984,13 +30996,13 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>3430</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>3414</v>
+        <v>3413</v>
+      </c>
+      <c r="C646" s="18" t="s">
+        <v>3412</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -30998,13 +31010,13 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -31012,13 +31024,13 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -31026,27 +31038,27 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="15">
         <v>649</v>
       </c>
-      <c r="B650" s="5" t="s">
-        <v>3435</v>
-      </c>
-      <c r="C650" s="18" t="s">
-        <v>3436</v>
-      </c>
-      <c r="D650" s="9" t="s">
-        <v>480</v>
+      <c r="B650" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>3421</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -31054,13 +31066,13 @@
         <v>650</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="C651" s="18" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="D651" s="9" t="s">
-        <v>3439</v>
+        <v>480</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -31068,13 +31080,13 @@
         <v>651</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>3443</v>
+        <v>3437</v>
       </c>
       <c r="C652" s="18" t="s">
-        <v>3444</v>
+        <v>3438</v>
       </c>
       <c r="D652" s="9" t="s">
-        <v>3445</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -31082,13 +31094,13 @@
         <v>652</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>3747</v>
+        <v>3443</v>
       </c>
       <c r="C653" s="18" t="s">
-        <v>3745</v>
+        <v>3444</v>
       </c>
       <c r="D653" s="9" t="s">
-        <v>3746</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -31096,13 +31108,13 @@
         <v>653</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>3758</v>
+        <v>3747</v>
       </c>
       <c r="C654" s="18" t="s">
-        <v>3757</v>
+        <v>3745</v>
       </c>
       <c r="D654" s="9" t="s">
-        <v>851</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -31110,13 +31122,13 @@
         <v>654</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="C655" s="18" t="s">
-        <v>3763</v>
+        <v>3757</v>
       </c>
       <c r="D655" s="9" t="s">
-        <v>3764</v>
+        <v>851</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -31124,13 +31136,13 @@
         <v>655</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>3767</v>
+        <v>3762</v>
       </c>
       <c r="C656" s="18" t="s">
-        <v>3768</v>
+        <v>3763</v>
       </c>
       <c r="D656" s="9" t="s">
-        <v>3769</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -31138,13 +31150,13 @@
         <v>656</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>3772</v>
+        <v>3767</v>
       </c>
       <c r="C657" s="18" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="D657" s="9" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -31152,12 +31164,26 @@
         <v>657</v>
       </c>
       <c r="B658" s="5" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C658" s="18" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D658" s="9" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="15">
+        <v>658</v>
+      </c>
+      <c r="B659" s="5" t="s">
         <v>3785</v>
       </c>
-      <c r="C658" s="18" t="s">
+      <c r="C659" s="18" t="s">
         <v>3786</v>
       </c>
-      <c r="D658" s="9" t="s">
+      <c r="D659" s="9" t="s">
         <v>3787</v>
       </c>
     </row>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64610807-CFDA-4426-B57F-CA0836BE4CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9157C01F-44CC-427F-BD2D-806B38C41F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="3794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="3809">
   <si>
     <t>myself</t>
   </si>
@@ -14331,6 +14331,63 @@
   <si>
     <t>Number of records after thinning</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDdeviceExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliaryDdeviceExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device export data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助设备的导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export data for ancillary devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizationExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organizations export data</t>
+  </si>
+  <si>
+    <t>User exports data</t>
+  </si>
+  <si>
+    <t>Role export data</t>
   </si>
 </sst>
 </file>
@@ -14822,7 +14879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -21976,10 +22033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D659"/>
+  <dimension ref="A1:D664"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A646" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C670" sqref="C670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31213,6 +31270,76 @@
       </c>
       <c r="D659" s="9" t="s">
         <v>3785</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="15">
+        <v>659</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C660" s="18" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D660" s="9" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="15">
+        <v>660</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C661" s="18" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D661" s="9" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="15">
+        <v>661</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C662" s="18" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D662" s="18" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="15">
+        <v>662</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C663" s="18" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D663" s="18" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" s="15">
+        <v>663</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C664" s="18" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D664" s="18" t="s">
+        <v>3808</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1475FE-0DDB-4894-8E7C-BECDC708D750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950FC45-8C48-4A36-8D03-61917A769DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="3836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="3848">
   <si>
     <t>myself</t>
   </si>
@@ -14553,6 +14553,50 @@
   <si>
     <t>importRole</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDictionaryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importDictionaryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary list</t>
+  </si>
+  <si>
+    <t>Import data dictionary</t>
+  </si>
+  <si>
+    <t>module exports data</t>
+  </si>
+  <si>
+    <t>Import modules</t>
   </si>
 </sst>
 </file>
@@ -22226,8 +22270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B673" sqref="B673"/>
+    <sheetView tabSelected="1" topLeftCell="D657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I679" sqref="I679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31660,28 +31704,60 @@
       </c>
     </row>
     <row r="674" spans="1:4">
-      <c r="A674" s="14"/>
-      <c r="B674" s="4"/>
-      <c r="C674" s="17"/>
-      <c r="D674" s="24"/>
+      <c r="A674" s="14">
+        <v>673</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C674" s="17" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D674" s="24" t="s">
+        <v>3844</v>
+      </c>
     </row>
     <row r="675" spans="1:4">
-      <c r="A675" s="14"/>
-      <c r="B675" s="4"/>
-      <c r="C675" s="17"/>
-      <c r="D675" s="24"/>
+      <c r="A675" s="14">
+        <v>674</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C675" s="17" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D675" s="24" t="s">
+        <v>3845</v>
+      </c>
     </row>
     <row r="676" spans="1:4">
-      <c r="A676" s="14"/>
-      <c r="B676" s="4"/>
-      <c r="C676" s="17"/>
-      <c r="D676" s="24"/>
+      <c r="A676" s="14">
+        <v>675</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C676" s="17" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D676" s="24" t="s">
+        <v>3846</v>
+      </c>
     </row>
     <row r="677" spans="1:4">
-      <c r="A677" s="14"/>
-      <c r="B677" s="4"/>
-      <c r="C677" s="17"/>
-      <c r="D677" s="24"/>
+      <c r="A677" s="14">
+        <v>676</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C677" s="17" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D677" s="24" t="s">
+        <v>3847</v>
+      </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="14"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950FC45-8C48-4A36-8D03-61917A769DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF16D57C-83D8-4476-82C4-832EF0568E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="3848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="3993">
   <si>
     <t>myself</t>
   </si>
@@ -13150,14 +13150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Intelligent monitoring system V9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligent monitoring system V9.6 mainly focuses on oil well intelligent analysis on the basis of collection and control. The module includes real-time monitoring, historical query, production report, fault query, log query, computing maintenance, driver configuration, rights management, device management, and system configuration. The system applies big data analysis method to carry out statistical analysis on key production indicators such as working conditions, output, liquid level, balance and energy consumption, so as to find abnormal production Wells in time, tap potential production Wells, and improve the control ability of target blocks and individual Wells.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The type of calculation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14116,14 +14108,6 @@
   </si>
   <si>
     <t>Dynamometer construction data-ground efficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能监控系统 V9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《智能监控系统 V9.6》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -14597,6 +14581,554 @@
   </si>
   <si>
     <t>Import modules</t>
+  </si>
+  <si>
+    <t>运维配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O&amp;M configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basicInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backupAndRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份与恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginInterfaceLanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeEfficiencyUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时率单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendSimulationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送模拟数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayTheLogo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceMonitoringLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源监测记录数限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulateDataSendingCycles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟数据发送周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDataLimits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数据限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historicalDataMaintenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executionCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historicalDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmHistoryTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警历史表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTotalCalculateTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计计算表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculationTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timingCalculationTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqdataVacuateTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据抽稀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataRetentionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保留时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSparseness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据抽稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparseRecordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuateSaveIntervalWaveRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀数据保存周期波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuateSaveInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀数据保存间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuateThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀表启用时的记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordsGreaterThan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数大于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneKeyBackup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backupDataImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic information</t>
+  </si>
+  <si>
+    <t>Backup and recovery</t>
+  </si>
+  <si>
+    <t>Login interface language</t>
+  </si>
+  <si>
+    <t>Hourly rate unit</t>
+  </si>
+  <si>
+    <t>Send simulation data</t>
+  </si>
+  <si>
+    <t>Display the logo</t>
+  </si>
+  <si>
+    <t>Limit of the number of resource monitoring records</t>
+  </si>
+  <si>
+    <t>Simulate data sending cycles</t>
+  </si>
+  <si>
+    <t>Print logs</t>
+  </si>
+  <si>
+    <t>Export data limits</t>
+  </si>
+  <si>
+    <t>Historical data maintenance</t>
+  </si>
+  <si>
+    <t>Execution cycle</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Historical data table</t>
+  </si>
+  <si>
+    <t>Source data table</t>
+  </si>
+  <si>
+    <t>Alarm history table</t>
+  </si>
+  <si>
+    <t>Daily cumulative calculation table</t>
+  </si>
+  <si>
+    <t>Summary table</t>
+  </si>
+  <si>
+    <t>Timing summary table</t>
+  </si>
+  <si>
+    <t>Data sparse table</t>
+  </si>
+  <si>
+    <t>Execution time</t>
+  </si>
+  <si>
+    <t>Data retention time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Data sparseness</t>
+  </si>
+  <si>
+    <t>Number of sparse records</t>
+  </si>
+  <si>
+    <t>The storage period of sampling data fluctuates</t>
+  </si>
+  <si>
+    <t>Sampling data storage interval</t>
+  </si>
+  <si>
+    <t>The number of records when the sparse table is enabled</t>
+  </si>
+  <si>
+    <t>The number of records is greater than</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>One-click export</t>
+  </si>
+  <si>
+    <t>Feature list</t>
+  </si>
+  <si>
+    <t>Backup data import</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>智能监控系统 V9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《智能监控系统 V9.7》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对工况、产量、液面、平衡、能耗等生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent monitoring system V9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent monitoring system V9.7 mainly focuses on oil well intelligent analysis on the basis of collection and control. The module includes real-time monitoring, historical query, production report, fault query, log query, computing maintenance, driver configuration, rights management, device management, and system configuration. The system applies big data analysis method to carry out statistical analysis on key production indicators such as working conditions, output, liquid level, balance and energy consumption, so as to find abnormal production Wells in time, tap potential production Wells, and improve the control ability of target blocks and individual Wells.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportModuleData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入模块数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportOrgAndRoleData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入组织数据和角色数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportOrgAndDriverData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入组织数据和驱动数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportProtocolData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入协议数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportAcqUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入采控单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportDisplayUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入显示单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportAlarmUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入报警单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportReportUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入报表单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Main equipment</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Import the module data first</t>
+  </si>
+  <si>
+    <t>Import your organization data and role data first</t>
+  </si>
+  <si>
+    <t>Import organizational data and driver data first</t>
+  </si>
+  <si>
+    <t>Please import the protocol data first</t>
+  </si>
+  <si>
+    <t>Import the data of the control unit first</t>
+  </si>
+  <si>
+    <t>Please import the display unit data first</t>
+  </si>
+  <si>
+    <t>Please import the alarm unit data first</t>
+  </si>
+  <si>
+    <t>Please import the report unit data first</t>
   </si>
 </sst>
 </file>
@@ -15383,13 +15915,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3788</v>
+        <v>3784</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>3789</v>
+        <v>3785</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>3790</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16846,7 +17378,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16879,10 +17411,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3738</v>
+        <v>3951</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>3493</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16893,10 +17425,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3739</v>
+        <v>3952</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>3494</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -18022,13 +18554,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -18036,13 +18568,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -18050,13 +18582,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -18064,13 +18596,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -18078,13 +18610,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -19974,7 +20506,7 @@
         <v>1279</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -19988,7 +20520,7 @@
         <v>1280</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -20002,7 +20534,7 @@
         <v>1281</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -20016,7 +20548,7 @@
         <v>1282</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -20030,7 +20562,7 @@
         <v>1283</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -20044,7 +20576,7 @@
         <v>1284</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -20058,7 +20590,7 @@
         <v>1285</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -20072,7 +20604,7 @@
         <v>1286</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -20100,7 +20632,7 @@
         <v>1287</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -20114,7 +20646,7 @@
         <v>1288</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -20212,7 +20744,7 @@
         <v>1840</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -20226,7 +20758,7 @@
         <v>1841</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -20254,7 +20786,7 @@
         <v>1843</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -20262,13 +20794,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -20276,13 +20808,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -20290,13 +20822,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -20304,13 +20836,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -20318,13 +20850,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
@@ -20332,13 +20864,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -20346,13 +20878,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -20360,13 +20892,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -20374,13 +20906,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -20388,13 +20920,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -20402,13 +20934,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -20416,13 +20948,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -20430,13 +20962,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -20444,13 +20976,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -20458,13 +20990,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -20472,13 +21004,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -20486,13 +21018,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -20500,13 +21032,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -20514,13 +21046,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -20528,13 +21060,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -20542,13 +21074,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -20556,13 +21088,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -20570,13 +21102,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -20584,13 +21116,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -20598,13 +21130,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -20612,13 +21144,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -20626,13 +21158,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -20640,13 +21172,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -20654,13 +21186,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -20668,13 +21200,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -20682,13 +21214,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="D258" s="24" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -20696,13 +21228,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="D259" s="24" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -20710,13 +21242,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -20724,13 +21256,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -20744,7 +21276,7 @@
         <v>2477</v>
       </c>
       <c r="D262" s="24" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -20772,7 +21304,7 @@
         <v>2478</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -20786,7 +21318,7 @@
         <v>2479</v>
       </c>
       <c r="D265" s="24" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -20856,7 +21388,7 @@
         <v>2480</v>
       </c>
       <c r="D270" s="24" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -20884,7 +21416,7 @@
         <v>2482</v>
       </c>
       <c r="D272" s="24" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -20898,7 +21430,7 @@
         <v>2483</v>
       </c>
       <c r="D273" s="24" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -20912,7 +21444,7 @@
         <v>2484</v>
       </c>
       <c r="D274" s="24" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -20926,7 +21458,7 @@
         <v>2485</v>
       </c>
       <c r="D275" s="24" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -20968,7 +21500,7 @@
         <v>2486</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -20982,7 +21514,7 @@
         <v>2487</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -21010,7 +21542,7 @@
         <v>2488</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -21024,7 +21556,7 @@
         <v>2489</v>
       </c>
       <c r="D282" s="24" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -21038,7 +21570,7 @@
         <v>2490</v>
       </c>
       <c r="D283" s="24" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -21052,7 +21584,7 @@
         <v>2554</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -21066,7 +21598,7 @@
         <v>2555</v>
       </c>
       <c r="D285" s="24" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -21080,7 +21612,7 @@
         <v>2556</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -21094,7 +21626,7 @@
         <v>2557</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -21108,7 +21640,7 @@
         <v>2558</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -21122,7 +21654,7 @@
         <v>2559</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -21136,7 +21668,7 @@
         <v>2560</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -21150,7 +21682,7 @@
         <v>2561</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -21164,7 +21696,7 @@
         <v>2562</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -21178,7 +21710,7 @@
         <v>2563</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -21192,7 +21724,7 @@
         <v>2564</v>
       </c>
       <c r="D294" s="24" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -21206,7 +21738,7 @@
         <v>2565</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -21220,7 +21752,7 @@
         <v>2566</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -21234,7 +21766,7 @@
         <v>2567</v>
       </c>
       <c r="D297" s="24" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -21248,7 +21780,7 @@
         <v>2568</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -21262,7 +21794,7 @@
         <v>2569</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -21276,7 +21808,7 @@
         <v>2570</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -21290,7 +21822,7 @@
         <v>2571</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -21304,7 +21836,7 @@
         <v>2572</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -21318,7 +21850,7 @@
         <v>2573</v>
       </c>
       <c r="D303" s="24" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -21346,7 +21878,7 @@
         <v>2491</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -21360,7 +21892,7 @@
         <v>2492</v>
       </c>
       <c r="D306" s="24" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -21374,7 +21906,7 @@
         <v>2493</v>
       </c>
       <c r="D307" s="24" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -21388,7 +21920,7 @@
         <v>2494</v>
       </c>
       <c r="D308" s="24" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -21402,7 +21934,7 @@
         <v>2495</v>
       </c>
       <c r="D309" s="24" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -21416,7 +21948,7 @@
         <v>2496</v>
       </c>
       <c r="D310" s="24" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -21430,7 +21962,7 @@
         <v>2497</v>
       </c>
       <c r="D311" s="24" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -21444,7 +21976,7 @@
         <v>2498</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -21458,7 +21990,7 @@
         <v>2499</v>
       </c>
       <c r="D313" s="24" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -21472,7 +22004,7 @@
         <v>2500</v>
       </c>
       <c r="D314" s="24" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -21486,7 +22018,7 @@
         <v>2501</v>
       </c>
       <c r="D315" s="24" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -21500,7 +22032,7 @@
         <v>2502</v>
       </c>
       <c r="D316" s="24" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -21612,7 +22144,7 @@
         <v>2510</v>
       </c>
       <c r="D324" s="24" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -21724,7 +22256,7 @@
         <v>2518</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -21738,7 +22270,7 @@
         <v>2519</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -21752,7 +22284,7 @@
         <v>2520</v>
       </c>
       <c r="D334" s="24" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -21766,7 +22298,7 @@
         <v>2521</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -21780,7 +22312,7 @@
         <v>2522</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -21791,10 +22323,10 @@
         <v>2095</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -21805,10 +22337,10 @@
         <v>2096</v>
       </c>
       <c r="C338" s="20" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -21819,10 +22351,10 @@
         <v>2097</v>
       </c>
       <c r="C339" s="20" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -21833,10 +22365,10 @@
         <v>2098</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
       <c r="D340" s="24" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -21847,10 +22379,10 @@
         <v>2109</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="D341" s="24" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -21861,10 +22393,10 @@
         <v>2099</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="D342" s="24" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -21875,10 +22407,10 @@
         <v>2100</v>
       </c>
       <c r="C343" s="20" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="D343" s="24" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -21889,10 +22421,10 @@
         <v>2101</v>
       </c>
       <c r="C344" s="20" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="D344" s="24" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -21903,10 +22435,10 @@
         <v>2102</v>
       </c>
       <c r="C345" s="20" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="D345" s="24" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -21917,10 +22449,10 @@
         <v>2103</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="D346" s="24" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -21931,10 +22463,10 @@
         <v>2115</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="D347" s="24" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -21945,10 +22477,10 @@
         <v>2116</v>
       </c>
       <c r="C348" s="20" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="D348" s="24" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -21959,10 +22491,10 @@
         <v>2104</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="D349" s="24" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -21973,10 +22505,10 @@
         <v>2162</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="D350" s="31" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -21990,7 +22522,7 @@
         <v>2172</v>
       </c>
       <c r="D351" s="31" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -22004,7 +22536,7 @@
         <v>2174</v>
       </c>
       <c r="D352" s="31" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -22186,7 +22718,7 @@
         <v>2166</v>
       </c>
       <c r="D365" s="31" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -22200,7 +22732,7 @@
         <v>2168</v>
       </c>
       <c r="D366" s="31" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -22214,7 +22746,7 @@
         <v>2170</v>
       </c>
       <c r="D367" s="31" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -22242,7 +22774,7 @@
         <v>2179</v>
       </c>
       <c r="D369" s="24" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -22256,7 +22788,7 @@
         <v>2181</v>
       </c>
       <c r="D370" s="24" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
     </row>
   </sheetData>
@@ -22268,10 +22800,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D683"/>
+  <dimension ref="A1:D725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I679" sqref="I679"/>
+    <sheetView tabSelected="1" topLeftCell="A699" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D730" sqref="D730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23003,10 +23535,10 @@
         <v>1040</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -23087,7 +23619,7 @@
         <v>1062</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>2619</v>
@@ -24316,13 +24848,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>3783</v>
+        <v>3779</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>3784</v>
+        <v>3780</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>3785</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -26338,7 +26870,7 @@
         <v>1471</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -29132,13 +29664,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>3821</v>
+        <v>3817</v>
       </c>
       <c r="C490" s="17" t="s">
-        <v>3822</v>
+        <v>3818</v>
       </c>
       <c r="D490" s="24" t="s">
-        <v>3823</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -31442,13 +31974,13 @@
         <v>654</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>3742</v>
+        <v>3738</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>3740</v>
+        <v>3736</v>
       </c>
       <c r="D655" s="24" t="s">
-        <v>3741</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -31456,10 +31988,10 @@
         <v>655</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>3753</v>
+        <v>3749</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>3752</v>
+        <v>3748</v>
       </c>
       <c r="D656" s="24" t="s">
         <v>850</v>
@@ -31470,13 +32002,13 @@
         <v>656</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D657" s="24" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -31484,13 +32016,13 @@
         <v>657</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>3763</v>
+        <v>3759</v>
       </c>
       <c r="D658" s="24" t="s">
-        <v>3764</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -31498,13 +32030,13 @@
         <v>658</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>3767</v>
+        <v>3763</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="D659" s="24" t="s">
-        <v>3766</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -31512,13 +32044,13 @@
         <v>659</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>3780</v>
+        <v>3776</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>3781</v>
+        <v>3777</v>
       </c>
       <c r="D660" s="24" t="s">
-        <v>3782</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -31526,13 +32058,13 @@
         <v>660</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>3791</v>
+        <v>3787</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>3793</v>
+        <v>3789</v>
       </c>
       <c r="D661" s="24" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -31540,13 +32072,13 @@
         <v>661</v>
       </c>
       <c r="B662" s="4" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C662" s="17" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D662" s="24" t="s">
         <v>3792</v>
-      </c>
-      <c r="C662" s="17" t="s">
-        <v>3795</v>
-      </c>
-      <c r="D662" s="24" t="s">
-        <v>3796</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -31554,13 +32086,13 @@
         <v>662</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
       <c r="D663" s="26" t="s">
-        <v>3803</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -31568,13 +32100,13 @@
         <v>663</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
       <c r="C664" s="17" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D664" s="26" t="s">
         <v>3800</v>
-      </c>
-      <c r="D664" s="26" t="s">
-        <v>3804</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -31582,13 +32114,13 @@
         <v>664</v>
       </c>
       <c r="B665" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C665" s="17" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D665" s="26" t="s">
         <v>3801</v>
-      </c>
-      <c r="C665" s="17" t="s">
-        <v>3802</v>
-      </c>
-      <c r="D665" s="26" t="s">
-        <v>3805</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -31596,13 +32128,13 @@
         <v>665</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>3806</v>
+        <v>3802</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>3807</v>
+        <v>3803</v>
       </c>
       <c r="D666" s="26" t="s">
-        <v>3808</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -31610,13 +32142,13 @@
         <v>666</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>3809</v>
+        <v>3805</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>3810</v>
+        <v>3806</v>
       </c>
       <c r="D667" s="24" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -31624,13 +32156,13 @@
         <v>667</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>3812</v>
+        <v>3808</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>3813</v>
+        <v>3809</v>
       </c>
       <c r="D668" s="24" t="s">
-        <v>3814</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -31638,13 +32170,13 @@
         <v>668</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>3815</v>
+        <v>3811</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="D669" s="24" t="s">
-        <v>3817</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -31652,13 +32184,13 @@
         <v>669</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>3818</v>
+        <v>3814</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>3819</v>
+        <v>3815</v>
       </c>
       <c r="D670" s="24" t="s">
-        <v>3820</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -31666,13 +32198,13 @@
         <v>670</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>3825</v>
+        <v>3821</v>
       </c>
       <c r="D671" s="24" t="s">
-        <v>3826</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -31680,13 +32212,13 @@
         <v>671</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>3827</v>
+        <v>3823</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>3828</v>
+        <v>3824</v>
       </c>
       <c r="D672" s="24" t="s">
-        <v>3829</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -31694,13 +32226,13 @@
         <v>672</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>3835</v>
+        <v>3831</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>3833</v>
+        <v>3829</v>
       </c>
       <c r="D673" s="24" t="s">
-        <v>3834</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -31708,13 +32240,13 @@
         <v>673</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>3836</v>
+        <v>3832</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>3837</v>
+        <v>3833</v>
       </c>
       <c r="D674" s="24" t="s">
-        <v>3844</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -31722,13 +32254,13 @@
         <v>674</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>3838</v>
+        <v>3834</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>3839</v>
+        <v>3835</v>
       </c>
       <c r="D675" s="24" t="s">
-        <v>3845</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -31736,13 +32268,13 @@
         <v>675</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>3841</v>
+        <v>3837</v>
       </c>
       <c r="D676" s="24" t="s">
-        <v>3846</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -31750,50 +32282,686 @@
         <v>676</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>3842</v>
+        <v>3838</v>
       </c>
       <c r="C677" s="17" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D677" s="24" t="s">
         <v>3843</v>
       </c>
-      <c r="D677" s="24" t="s">
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="14">
+        <v>677</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C678" s="17" t="s">
         <v>3847</v>
       </c>
-    </row>
-    <row r="678" spans="1:4">
-      <c r="A678" s="14"/>
-      <c r="B678" s="4"/>
-      <c r="C678" s="17"/>
-      <c r="D678" s="24"/>
+      <c r="D678" s="24" t="s">
+        <v>3916</v>
+      </c>
     </row>
     <row r="679" spans="1:4">
-      <c r="A679" s="14"/>
-      <c r="B679" s="4"/>
-      <c r="C679" s="17"/>
-      <c r="D679" s="24"/>
+      <c r="A679" s="14">
+        <v>678</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C679" s="17" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D679" s="24" t="s">
+        <v>3917</v>
+      </c>
     </row>
     <row r="680" spans="1:4">
-      <c r="A680" s="14"/>
-      <c r="B680" s="4"/>
-      <c r="C680" s="17"/>
-      <c r="D680" s="24"/>
+      <c r="A680" s="14">
+        <v>679</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C680" s="17" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D680" s="24" t="s">
+        <v>3918</v>
+      </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="14"/>
-      <c r="B681" s="4"/>
-      <c r="C681" s="17"/>
-      <c r="D681" s="24"/>
+      <c r="A681" s="14">
+        <v>680</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C681" s="17" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D681" s="24" t="s">
+        <v>3919</v>
+      </c>
     </row>
     <row r="682" spans="1:4">
-      <c r="A682" s="14"/>
-      <c r="B682" s="4"/>
-      <c r="C682" s="17"/>
-      <c r="D682" s="24"/>
+      <c r="A682" s="14">
+        <v>681</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C682" s="17" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D682" s="24" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="683" spans="1:4">
-      <c r="A683" s="14"/>
-      <c r="B683" s="4"/>
-      <c r="C683" s="17"/>
-      <c r="D683" s="24"/>
+      <c r="A683" s="14">
+        <v>682</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C683" s="17" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D683" s="24" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="14">
+        <v>683</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C684" s="17" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D684" s="24" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="14">
+        <v>684</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C685" s="17" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D685" s="24" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="14">
+        <v>685</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C686" s="17" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D686" s="24" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="14">
+        <v>686</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C687" s="17" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D687" s="24" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="14">
+        <v>687</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C688" s="17" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D688" s="24" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="14">
+        <v>688</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C689" s="17" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D689" s="24" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="14">
+        <v>689</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C690" s="17" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D690" s="24" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="14">
+        <v>690</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C691" s="17" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D691" s="24" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="14">
+        <v>691</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C692" s="17" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D692" s="24" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="14">
+        <v>692</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C693" s="17" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D693" s="24" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="14">
+        <v>693</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C694" s="17" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D694" s="24" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="14">
+        <v>694</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C695" s="17" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D695" s="24" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="14">
+        <v>695</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C696" s="17" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D696" s="24" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="14">
+        <v>696</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C697" s="17" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D697" s="24" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="14">
+        <v>697</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C698" s="17" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D698" s="24" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="14">
+        <v>698</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C699" s="17" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D699" s="24" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="14">
+        <v>699</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C700" s="17" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D700" s="24" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="14">
+        <v>700</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C701" s="17" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D701" s="24" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="14">
+        <v>701</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C702" s="17" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D702" s="24" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="14">
+        <v>702</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C703" s="17" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D703" s="24" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="14">
+        <v>703</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C704" s="17" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D704" s="24" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="14">
+        <v>704</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C705" s="17" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D705" s="24" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" s="14">
+        <v>705</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C706" s="17" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D706" s="24" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="14">
+        <v>706</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C707" s="17" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D707" s="24" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="14">
+        <v>707</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C708" s="17" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D708" s="24" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="14">
+        <v>708</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C709" s="17" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D709" s="24" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="14">
+        <v>709</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C710" s="17" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D710" s="24" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="14">
+        <v>710</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C711" s="17" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D711" s="24" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="14">
+        <v>711</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C712" s="17" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D712" s="24" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="14">
+        <v>712</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C713" s="17" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D713" s="24" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="14">
+        <v>713</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C714" s="17" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D714" s="24" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="14">
+        <v>714</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C715" s="17" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D715" s="24" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="14">
+        <v>715</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C716" s="17" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D716" s="24" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="14">
+        <v>716</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C717" s="17" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D717" s="24" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="14">
+        <v>717</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C718" s="17" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D718" s="24" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="14">
+        <v>718</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C719" s="17" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D719" s="24" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="14">
+        <v>719</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C720" s="17" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D720" s="24" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="14">
+        <v>720</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C721" s="17" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D721" s="24" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" s="14">
+        <v>721</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C722" s="17" t="s">
+        <v>3973</v>
+      </c>
+      <c r="D722" s="24" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" s="14">
+        <v>722</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C723" s="17" t="s">
+        <v>3975</v>
+      </c>
+      <c r="D723" s="24" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" s="14">
+        <v>723</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C724" s="17" t="s">
+        <v>3977</v>
+      </c>
+      <c r="D724" s="24" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="14">
+        <v>724</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C725" s="17" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D725" s="24" t="s">
+        <v>3992</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32676,10 +33844,10 @@
         <v>3429</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>3770</v>
+        <v>3766</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -32696,10 +33864,10 @@
         <v>3429</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>3771</v>
+        <v>3767</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>3776</v>
+        <v>3772</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -32716,10 +33884,10 @@
         <v>3429</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>3772</v>
+        <v>3768</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>3777</v>
+        <v>3773</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -32736,7 +33904,7 @@
         <v>3429</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>3773</v>
+        <v>3769</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>3079</v>
@@ -32756,10 +33924,10 @@
         <v>3429</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>3771</v>
+        <v>3767</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>3776</v>
+        <v>3772</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -32767,7 +33935,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>3779</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -32778,10 +33946,10 @@
         <v>3429</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>3774</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>3778</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -32798,10 +33966,10 @@
         <v>3471</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>3768</v>
+        <v>3764</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -32855,13 +34023,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3743</v>
+        <v>3739</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>3744</v>
+        <v>3740</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>3751</v>
+        <v>3747</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -32875,13 +34043,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3743</v>
+        <v>3739</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>3745</v>
+        <v>3741</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>3748</v>
+        <v>3744</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -32895,13 +34063,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3743</v>
+        <v>3739</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>3746</v>
+        <v>3742</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>3749</v>
+        <v>3745</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -32915,13 +34083,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>3743</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>3747</v>
-      </c>
       <c r="D55" s="24" t="s">
-        <v>3750</v>
+        <v>3746</v>
       </c>
       <c r="E55" s="1">
         <v>4</v>
@@ -32935,7 +34103,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3754</v>
+        <v>3750</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>2703</v>
@@ -32955,13 +34123,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3754</v>
+        <v>3750</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>3755</v>
+        <v>3751</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -33042,7 +34210,7 @@
         <v>1832</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1881</v>
@@ -33074,7 +34242,7 @@
         <v>1882</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>3830</v>
+        <v>3826</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
@@ -33094,13 +34262,13 @@
         <v>1813</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>1883</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>3831</v>
+        <v>3827</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="8" t="s">
@@ -33120,13 +34288,13 @@
         <v>1814</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>1884</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>3832</v>
+        <v>3828</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="8" t="s">
@@ -33148,7 +34316,7 @@
         <v>1815</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>1885</v>
@@ -33176,7 +34344,7 @@
         <v>1833</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>1886</v>
@@ -33204,7 +34372,7 @@
         <v>1816</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>1887</v>
@@ -33232,7 +34400,7 @@
         <v>1817</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>1888</v>
@@ -33288,7 +34456,7 @@
         <v>1818</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>1890</v>
@@ -33316,7 +34484,7 @@
         <v>1819</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>1891</v>
@@ -33344,7 +34512,7 @@
         <v>1820</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>1892</v>
@@ -33372,7 +34540,7 @@
         <v>1821</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>1893</v>
@@ -33400,7 +34568,7 @@
         <v>1822</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>1894</v>
@@ -33428,7 +34596,7 @@
         <v>1823</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>1895</v>
@@ -33456,7 +34624,7 @@
         <v>1824</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>1896</v>
@@ -33484,7 +34652,7 @@
         <v>1825</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>1897</v>
@@ -33512,7 +34680,7 @@
         <v>1835</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>1898</v>
@@ -33540,7 +34708,7 @@
         <v>1826</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>1899</v>
@@ -33568,7 +34736,7 @@
         <v>1836</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>1895</v>
@@ -33596,7 +34764,7 @@
         <v>1827</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>1900</v>
@@ -33624,7 +34792,7 @@
         <v>1828</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>1901</v>
@@ -33652,7 +34820,7 @@
         <v>1838</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>1902</v>
@@ -33680,7 +34848,7 @@
         <v>1986</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>1903</v>
@@ -33708,7 +34876,7 @@
         <v>1985</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="24"/>
@@ -33732,7 +34900,7 @@
         <v>1983</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>1904</v>
@@ -33760,7 +34928,7 @@
         <v>1984</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="24"/>
@@ -33784,7 +34952,7 @@
         <v>1829</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>1905</v>
@@ -33812,7 +34980,7 @@
         <v>1830</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="24"/>
@@ -33836,7 +35004,7 @@
         <v>1831</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="24"/>
@@ -33878,10 +35046,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33984,10 +35152,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3786</v>
+        <v>3782</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>3787</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -34109,6 +35277,17 @@
       </c>
       <c r="C20" s="24" t="s">
         <v>3217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>3845</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF16D57C-83D8-4476-82C4-832EF0568E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2657F6-E374-4CC1-824D-160486B55491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14595,18 +14595,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>backupAndRecovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备份与恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loginInterfaceLanguage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14871,12 +14863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic information</t>
-  </si>
-  <si>
-    <t>Backup and recovery</t>
-  </si>
-  <si>
     <t>Login interface language</t>
   </si>
   <si>
@@ -15129,6 +15115,22 @@
   </si>
   <si>
     <t>Please import the report unit data first</t>
+  </si>
+  <si>
+    <t>Automated O&amp;M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构备份与恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural backup and recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -17411,10 +17413,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17425,10 +17427,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22802,8 +22804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A699" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D730" sqref="D730"/>
+    <sheetView tabSelected="1" topLeftCell="A666" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D679" sqref="D679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32299,10 +32301,10 @@
         <v>3846</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>3847</v>
+        <v>3990</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>3916</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -32310,13 +32312,13 @@
         <v>678</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>3849</v>
+        <v>3991</v>
       </c>
       <c r="D679" s="24" t="s">
-        <v>3917</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -32324,13 +32326,13 @@
         <v>679</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3918</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32338,13 +32340,13 @@
         <v>680</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3919</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32352,13 +32354,13 @@
         <v>681</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="C682" s="17" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3920</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32366,13 +32368,13 @@
         <v>682</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="C683" s="17" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32380,13 +32382,13 @@
         <v>683</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="C684" s="17" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3922</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32394,13 +32396,13 @@
         <v>684</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C685" s="17" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3923</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32408,13 +32410,13 @@
         <v>685</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C686" s="17" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3924</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32422,13 +32424,13 @@
         <v>686</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C687" s="17" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3925</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32436,13 +32438,13 @@
         <v>687</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3926</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32450,13 +32452,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="D689" s="24" t="s">
-        <v>3927</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32464,13 +32466,13 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
       <c r="D690" s="24" t="s">
-        <v>3928</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32478,13 +32480,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3929</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32492,13 +32494,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3930</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32506,13 +32508,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3931</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32520,13 +32522,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3932</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32534,13 +32536,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32548,13 +32550,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32562,13 +32564,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32576,13 +32578,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3936</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32590,13 +32592,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32604,13 +32606,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32618,13 +32620,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32632,13 +32634,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32646,13 +32648,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32660,13 +32662,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32674,13 +32676,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -32688,13 +32690,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -32702,13 +32704,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -32716,13 +32718,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -32730,13 +32732,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -32744,13 +32746,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -32758,13 +32760,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -32772,13 +32774,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -32786,13 +32788,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -32800,13 +32802,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3958</v>
+        <v>3954</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -32814,13 +32816,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3959</v>
+        <v>3955</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -32828,13 +32830,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="C716" s="17" t="s">
         <v>3220</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3983</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -32842,13 +32844,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -32856,13 +32858,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3965</v>
+        <v>3961</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -32870,13 +32872,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3966</v>
+        <v>3962</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3986</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -32884,13 +32886,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3968</v>
+        <v>3964</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3969</v>
+        <v>3965</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3987</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -32898,13 +32900,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3970</v>
+        <v>3966</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -32912,13 +32914,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3989</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -32926,13 +32928,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3990</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -32940,13 +32942,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3991</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -32954,13 +32956,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2657F6-E374-4CC1-824D-160486B55491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E97B24-9581-4A4C-B74F-C5791E87D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14779,26 +14779,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽稀记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vacuateSaveIntervalWaveRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽稀数据保存周期波动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vacuateSaveInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽稀数据保存间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vacuateThreshold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14929,15 +14917,6 @@
     <t>Data sparseness</t>
   </si>
   <si>
-    <t>Number of sparse records</t>
-  </si>
-  <si>
-    <t>The storage period of sampling data fluctuates</t>
-  </si>
-  <si>
-    <t>Sampling data storage interval</t>
-  </si>
-  <si>
     <t>The number of records when the sparse table is enabled</t>
   </si>
   <si>
@@ -15131,6 +15110,27 @@
   <si>
     <t>Structural backup and recovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘周期波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of records</t>
+  </si>
+  <si>
+    <t>The deposit cycle fluctuates</t>
+  </si>
+  <si>
+    <t>Storage period</t>
   </si>
 </sst>
 </file>
@@ -17413,10 +17413,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3947</v>
+        <v>3941</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>3949</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17427,10 +17427,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3948</v>
+        <v>3942</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>3950</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22804,8 +22804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D679" sqref="D679"/>
+    <sheetView tabSelected="1" topLeftCell="A684" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D702" sqref="D702:D704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32301,10 +32301,10 @@
         <v>3846</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>3990</v>
+        <v>3984</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>3989</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -32315,10 +32315,10 @@
         <v>3847</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>3991</v>
+        <v>3985</v>
       </c>
       <c r="D679" s="24" t="s">
-        <v>3992</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -32332,7 +32332,7 @@
         <v>3849</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32346,7 +32346,7 @@
         <v>3851</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32360,7 +32360,7 @@
         <v>3853</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32374,7 +32374,7 @@
         <v>3855</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32388,7 +32388,7 @@
         <v>3857</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32402,7 +32402,7 @@
         <v>3859</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32416,7 +32416,7 @@
         <v>3861</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32430,7 +32430,7 @@
         <v>3863</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32444,7 +32444,7 @@
         <v>3865</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32458,7 +32458,7 @@
         <v>3867</v>
       </c>
       <c r="D689" s="24" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32472,7 +32472,7 @@
         <v>3869</v>
       </c>
       <c r="D690" s="24" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32486,7 +32486,7 @@
         <v>3871</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32500,7 +32500,7 @@
         <v>3873</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32514,7 +32514,7 @@
         <v>3875</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32528,7 +32528,7 @@
         <v>3877</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32542,7 +32542,7 @@
         <v>3879</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32556,7 +32556,7 @@
         <v>3881</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32570,7 +32570,7 @@
         <v>3883</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32584,7 +32584,7 @@
         <v>3885</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32598,7 +32598,7 @@
         <v>3887</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32612,7 +32612,7 @@
         <v>3889</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32626,7 +32626,7 @@
         <v>3891</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32637,10 +32637,10 @@
         <v>3892</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3893</v>
+        <v>3987</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3936</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32648,13 +32648,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3895</v>
+        <v>3988</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3937</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32662,13 +32662,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3897</v>
+        <v>3989</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3938</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32676,13 +32676,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3939</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -32690,13 +32690,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3940</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -32704,13 +32704,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3941</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -32718,13 +32718,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3942</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -32732,13 +32732,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3943</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -32746,13 +32746,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3944</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -32760,13 +32760,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3945</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -32774,13 +32774,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3946</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -32788,13 +32788,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3951</v>
+        <v>3945</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3952</v>
+        <v>3946</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3976</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -32802,13 +32802,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3953</v>
+        <v>3947</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3954</v>
+        <v>3948</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3977</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -32816,13 +32816,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3955</v>
+        <v>3949</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3956</v>
+        <v>3950</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3978</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -32830,13 +32830,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3957</v>
+        <v>3951</v>
       </c>
       <c r="C716" s="17" t="s">
         <v>3220</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3979</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -32844,13 +32844,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3958</v>
+        <v>3952</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3959</v>
+        <v>3953</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3980</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -32858,13 +32858,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3960</v>
+        <v>3954</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3961</v>
+        <v>3955</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3981</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -32872,13 +32872,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3962</v>
+        <v>3956</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3963</v>
+        <v>3957</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3982</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -32886,13 +32886,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3964</v>
+        <v>3958</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3965</v>
+        <v>3959</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3983</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -32900,13 +32900,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3966</v>
+        <v>3960</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3967</v>
+        <v>3961</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3984</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -32914,13 +32914,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3968</v>
+        <v>3962</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3969</v>
+        <v>3963</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3985</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -32928,13 +32928,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3970</v>
+        <v>3964</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3971</v>
+        <v>3965</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3986</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -32942,13 +32942,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3972</v>
+        <v>3966</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3973</v>
+        <v>3967</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3987</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -32956,13 +32956,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3974</v>
+        <v>3968</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3975</v>
+        <v>3969</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3988</v>
+        <v>3982</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E97B24-9581-4A4C-B74F-C5791E87D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A56DE-CEAA-422F-B5AA-1B8A4917EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="3993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="3996">
   <si>
     <t>myself</t>
   </si>
@@ -15131,6 +15131,18 @@
   </si>
   <si>
     <t>Storage period</t>
+  </si>
+  <si>
+    <t>automatedOperationsManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -22802,10 +22814,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D725"/>
+  <dimension ref="A1:D726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A684" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D702" sqref="D702:D704"/>
+    <sheetView tabSelected="1" topLeftCell="A708" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D733" sqref="D733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32298,7 +32310,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>3846</v>
+        <v>3993</v>
       </c>
       <c r="C678" s="17" t="s">
         <v>3984</v>
@@ -32963,6 +32975,20 @@
       </c>
       <c r="D725" s="24" t="s">
         <v>3982</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="14">
+        <v>725</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C726" s="17" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D726" s="24" t="s">
+        <v>3995</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A56DE-CEAA-422F-B5AA-1B8A4917EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57060F29-1863-4F43-873E-4160475F4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="3996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="4002">
   <si>
     <t>myself</t>
   </si>
@@ -15143,6 +15143,28 @@
   <si>
     <t>Basic information</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突的设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM configuration</t>
+  </si>
+  <si>
+    <t>Conflicting equipment</t>
   </si>
 </sst>
 </file>
@@ -22814,10 +22836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D726"/>
+  <dimension ref="A1:D728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A708" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D733" sqref="D733"/>
+      <selection activeCell="D735" sqref="D735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32989,6 +33011,34 @@
       </c>
       <c r="D726" s="24" t="s">
         <v>3995</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="14">
+        <v>726</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C727" s="17" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D727" s="24" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="14">
+        <v>727</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C728" s="17" t="s">
+        <v>3999</v>
+      </c>
+      <c r="D728" s="24" t="s">
+        <v>4001</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57060F29-1863-4F43-873E-4160475F4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7A2D6-6890-4038-8B32-D8535C7050F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="4002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="4024">
   <si>
     <t>myself</t>
   </si>
@@ -15165,6 +15165,87 @@
   </si>
   <si>
     <t>Conflicting equipment</t>
+  </si>
+  <si>
+    <t>affiliatedOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memoryCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalMemoryUsage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcatPhysicalMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat物理内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVMMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVMHeapMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM堆内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVMNonHeapMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM非堆内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oraclePhysicalMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库物理内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory curve</t>
+  </si>
+  <si>
+    <t>Total memory</t>
+  </si>
+  <si>
+    <t>Tomcat physical memory</t>
+  </si>
+  <si>
+    <t>JVM memory</t>
+  </si>
+  <si>
+    <t>JVM heap memory</t>
+  </si>
+  <si>
+    <t>JVM is not heap memory</t>
+  </si>
+  <si>
+    <t>Database physical memory</t>
   </si>
 </sst>
 </file>
@@ -22836,10 +22917,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D728"/>
+  <dimension ref="A1:D739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A708" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D735" sqref="D735"/>
+    <sheetView tabSelected="1" topLeftCell="A705" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D739" sqref="D739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33040,6 +33121,136 @@
       <c r="D728" s="24" t="s">
         <v>4001</v>
       </c>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="14">
+        <v>728</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C729" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D729" s="24" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="14">
+        <v>729</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C730" s="17" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D730" s="24" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="14">
+        <v>730</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C731" s="17" t="s">
+        <v>4006</v>
+      </c>
+      <c r="D731" s="24" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="14">
+        <v>731</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C732" s="17" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D732" s="24" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="14">
+        <v>732</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C733" s="17" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D733" s="24" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="14">
+        <v>733</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C734" s="17" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D734" s="24" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="14">
+        <v>734</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C735" s="17" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D735" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="14">
+        <v>735</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C736" s="17" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D736" s="24" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="14"/>
+      <c r="B737" s="4"/>
+      <c r="C737" s="17"/>
+      <c r="D737" s="24"/>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="14"/>
+      <c r="B738" s="4"/>
+      <c r="C738" s="17"/>
+      <c r="D738" s="24"/>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="14"/>
+      <c r="B739" s="4"/>
+      <c r="C739" s="17"/>
+      <c r="D739" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35378,8 +35589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7A2D6-6890-4038-8B32-D8535C7050F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103CC6CB-73FD-400F-B9AC-3EBD11386036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="4024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="4029">
   <si>
     <t>myself</t>
   </si>
@@ -15246,6 +15246,26 @@
   </si>
   <si>
     <t>Database physical memory</t>
+  </si>
+  <si>
+    <t>批量下行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downwardCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchDownwardCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -22919,8 +22939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A705" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D739" sqref="D739"/>
+    <sheetView tabSelected="1" topLeftCell="A707" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B742" sqref="B742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33235,16 +33255,32 @@
       </c>
     </row>
     <row r="737" spans="1:4">
-      <c r="A737" s="14"/>
-      <c r="B737" s="4"/>
-      <c r="C737" s="17"/>
-      <c r="D737" s="24"/>
+      <c r="A737" s="14">
+        <v>736</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C737" s="17" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D737" s="17" t="s">
+        <v>4025</v>
+      </c>
     </row>
     <row r="738" spans="1:4">
-      <c r="A738" s="14"/>
-      <c r="B738" s="4"/>
-      <c r="C738" s="17"/>
-      <c r="D738" s="24"/>
+      <c r="A738" s="14">
+        <v>737</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C738" s="17" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D738" s="17" t="s">
+        <v>4026</v>
+      </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="14"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D7226-36AC-4A4A-B3ED-EA5960607D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5010C4D-0FC7-4727-9ED3-8193957E6192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="4056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="4065">
   <si>
     <t>myself</t>
   </si>
@@ -15375,6 +15375,42 @@
   </si>
   <si>
     <t>Run status field name association</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgAssociatedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该组织关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The organization associates information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleAssociatedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该角色关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The role is associated with information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23049,8 +23085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33519,22 +33555,46 @@
       </c>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="14"/>
-      <c r="B748" s="4"/>
-      <c r="C748" s="17"/>
-      <c r="D748" s="24"/>
+      <c r="A748" s="14">
+        <v>747</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D748" s="24" t="s">
+        <v>4058</v>
+      </c>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="14"/>
-      <c r="B749" s="4"/>
-      <c r="C749" s="17"/>
-      <c r="D749" s="24"/>
+      <c r="A749" s="14">
+        <v>748</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C749" s="17" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D749" s="24" t="s">
+        <v>4061</v>
+      </c>
     </row>
     <row r="750" spans="1:4">
-      <c r="A750" s="14"/>
-      <c r="B750" s="4"/>
-      <c r="C750" s="17"/>
-      <c r="D750" s="24"/>
+      <c r="A750" s="14">
+        <v>749</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D750" s="24" t="s">
+        <v>4064</v>
+      </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="14"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5010C4D-0FC7-4727-9ED3-8193957E6192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A3707-BCEE-4E4B-9F17-077407F7915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="4065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="4068">
   <si>
     <t>myself</t>
   </si>
@@ -15411,6 +15411,18 @@
   </si>
   <si>
     <t>The role is associated with information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23086,7 +23098,7 @@
   <dimension ref="A1:D761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C755" sqref="C755"/>
+      <selection activeCell="C756" sqref="C756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33597,10 +33609,18 @@
       </c>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="14"/>
-      <c r="B751" s="4"/>
-      <c r="C751" s="17"/>
-      <c r="D751" s="24"/>
+      <c r="A751" s="14">
+        <v>750</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4066</v>
+      </c>
+      <c r="D751" s="24" t="s">
+        <v>4067</v>
+      </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="14"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A3707-BCEE-4E4B-9F17-077407F7915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D12F3F-D6A2-42AC-94B7-0E1E4AC7CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="4068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="4074">
   <si>
     <t>myself</t>
   </si>
@@ -15423,6 +15423,30 @@
   </si>
   <si>
     <t>Tag management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印通信服务交互日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the communication service interaction log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printAdLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printExceptionLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印异常信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the exception information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23095,10 +23119,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D761"/>
+  <dimension ref="A1:D763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C756" sqref="C756"/>
+    <sheetView tabSelected="1" topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D690" sqref="D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32745,13 +32769,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>3854</v>
+        <v>4070</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D689" s="24" t="s">
-        <v>3910</v>
+        <v>4068</v>
+      </c>
+      <c r="D689" s="26" t="s">
+        <v>4069</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32759,13 +32783,13 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>3856</v>
+        <v>4071</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>3857</v>
-      </c>
-      <c r="D690" s="24" t="s">
-        <v>3911</v>
+        <v>4072</v>
+      </c>
+      <c r="D690" s="26" t="s">
+        <v>4073</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32773,13 +32797,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32787,13 +32811,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32801,13 +32825,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>3862</v>
+        <v>3858</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>3863</v>
+        <v>3859</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32815,13 +32839,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>3864</v>
+        <v>3860</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>3865</v>
+        <v>3861</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32829,13 +32853,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>3866</v>
+        <v>3862</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32843,13 +32867,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32857,13 +32881,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32871,13 +32895,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32885,13 +32909,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32899,13 +32923,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32913,13 +32937,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>3879</v>
+        <v>3875</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32927,13 +32951,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>3880</v>
+        <v>3876</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32941,13 +32965,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3882</v>
+        <v>3878</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32955,13 +32979,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3975</v>
+        <v>3881</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3978</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32969,13 +32993,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3976</v>
+        <v>3883</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3979</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -32983,13 +33007,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -32997,13 +33021,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3888</v>
+        <v>3976</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3925</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -33011,13 +33035,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3890</v>
+        <v>3977</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3926</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -33025,13 +33049,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3892</v>
+        <v>3888</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -33039,13 +33063,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3893</v>
+        <v>3889</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -33053,13 +33077,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -33067,13 +33091,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -33081,13 +33105,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -33095,13 +33119,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -33109,13 +33133,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3933</v>
+        <v>3899</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3934</v>
+        <v>3900</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3958</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -33123,13 +33147,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3935</v>
+        <v>3901</v>
       </c>
       <c r="C716" s="17" t="s">
-        <v>3936</v>
+        <v>3902</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3959</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -33137,13 +33161,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -33151,13 +33175,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3212</v>
+        <v>3936</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33165,13 +33189,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33179,13 +33203,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3943</v>
+        <v>3212</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33193,13 +33217,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33207,13 +33231,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33221,13 +33245,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33235,13 +33259,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33249,13 +33273,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33263,13 +33287,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33277,13 +33301,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33291,13 +33315,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3838</v>
+        <v>3954</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3982</v>
+        <v>3955</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3983</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33305,13 +33329,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3984</v>
+        <v>3956</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>3985</v>
+        <v>3957</v>
       </c>
       <c r="D729" s="24" t="s">
-        <v>3988</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -33319,13 +33343,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>3986</v>
+        <v>3838</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>3989</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33333,13 +33357,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3990</v>
+        <v>3984</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>1116</v>
+        <v>3985</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>3314</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33347,13 +33371,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3991</v>
+        <v>3986</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="D732" s="24" t="s">
-        <v>4005</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33361,13 +33385,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>3993</v>
+        <v>3990</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>3994</v>
+        <v>1116</v>
       </c>
       <c r="D733" s="24" t="s">
-        <v>4006</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -33375,13 +33399,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33389,13 +33413,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33403,13 +33427,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -33417,13 +33441,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="D737" s="24" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -33431,13 +33455,13 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="D738" s="24" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -33445,13 +33469,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>4015</v>
+        <v>4001</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D739" s="17" t="s">
-        <v>4013</v>
+        <v>4002</v>
+      </c>
+      <c r="D739" s="24" t="s">
+        <v>4010</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -33459,13 +33483,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>4016</v>
+        <v>4003</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>4012</v>
-      </c>
-      <c r="D740" s="17" t="s">
-        <v>4014</v>
+        <v>4004</v>
+      </c>
+      <c r="D740" s="24" t="s">
+        <v>4011</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -33473,13 +33497,13 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>4024</v>
+        <v>4015</v>
       </c>
       <c r="C741" s="17" t="s">
-        <v>4025</v>
-      </c>
-      <c r="D741" s="24" t="s">
-        <v>4026</v>
+        <v>2029</v>
+      </c>
+      <c r="D741" s="17" t="s">
+        <v>4013</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -33487,13 +33511,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>4032</v>
+        <v>4016</v>
       </c>
       <c r="C742" s="17" t="s">
-        <v>4033</v>
-      </c>
-      <c r="D742" s="24" t="s">
-        <v>4034</v>
+        <v>4012</v>
+      </c>
+      <c r="D742" s="17" t="s">
+        <v>4014</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -33501,13 +33525,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>4037</v>
+        <v>4024</v>
       </c>
       <c r="C743" s="17" t="s">
-        <v>4035</v>
+        <v>4025</v>
       </c>
       <c r="D743" s="24" t="s">
-        <v>4036</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -33515,13 +33539,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>4046</v>
+        <v>4032</v>
       </c>
       <c r="C744" s="17" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="D744" s="24" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33529,13 +33553,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="D745" s="24" t="s">
-        <v>4041</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33543,13 +33567,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4043</v>
+        <v>4046</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4044</v>
+        <v>4038</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4045</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33557,13 +33581,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4051</v>
+        <v>4042</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4049</v>
+        <v>4040</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4050</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33571,13 +33595,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>4056</v>
+        <v>4043</v>
       </c>
       <c r="C748" s="17" t="s">
-        <v>4057</v>
+        <v>4044</v>
       </c>
       <c r="D748" s="24" t="s">
-        <v>4058</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33585,13 +33609,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>4059</v>
+        <v>4051</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>4060</v>
+        <v>4049</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>4061</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33599,13 +33623,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>4062</v>
+        <v>4056</v>
       </c>
       <c r="C750" s="17" t="s">
-        <v>4063</v>
+        <v>4057</v>
       </c>
       <c r="D750" s="24" t="s">
-        <v>4064</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33613,26 +33637,42 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D751" s="24" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="14">
+        <v>751</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D752" s="24" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="14">
+        <v>752</v>
+      </c>
+      <c r="B753" s="4" t="s">
         <v>4065</v>
       </c>
-      <c r="C751" s="17" t="s">
+      <c r="C753" s="17" t="s">
         <v>4066</v>
       </c>
-      <c r="D751" s="24" t="s">
+      <c r="D753" s="24" t="s">
         <v>4067</v>
       </c>
-    </row>
-    <row r="752" spans="1:4">
-      <c r="A752" s="14"/>
-      <c r="B752" s="4"/>
-      <c r="C752" s="17"/>
-      <c r="D752" s="24"/>
-    </row>
-    <row r="753" spans="1:4">
-      <c r="A753" s="14"/>
-      <c r="B753" s="4"/>
-      <c r="C753" s="17"/>
-      <c r="D753" s="24"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="14"/>
@@ -33681,6 +33721,18 @@
       <c r="B761" s="4"/>
       <c r="C761" s="17"/>
       <c r="D761" s="24"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="14"/>
+      <c r="B762" s="4"/>
+      <c r="C762" s="17"/>
+      <c r="D762" s="24"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="14"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="17"/>
+      <c r="D763" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D12F3F-D6A2-42AC-94B7-0E1E4AC7CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F01AE4F-B277-42D4-B1A9-D96F3890D9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14621,10 +14621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exportDataLimits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14839,9 +14835,6 @@
     <t>Simulate data sending cycles</t>
   </si>
   <si>
-    <t>Print logs</t>
-  </si>
-  <si>
     <t>Export data limits</t>
   </si>
   <si>
@@ -15426,14 +15419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印通信服务交互日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print the communication service interaction log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>printAdLogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15442,12 +15427,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印异常信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print the exception information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>打印调试日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印交互日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印异常日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the debug log</t>
+  </si>
+  <si>
+    <t>Print the interaction log</t>
+  </si>
+  <si>
+    <t>Print the exception log</t>
   </si>
 </sst>
 </file>
@@ -17730,10 +17728,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17744,10 +17742,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23122,7 +23120,7 @@
   <dimension ref="A1:D763"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D690" sqref="D690"/>
+      <selection activeCell="D688" sqref="D688:D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25856,10 +25854,10 @@
         <v>183</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -25881,13 +25879,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -25898,10 +25896,10 @@
         <v>185</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -26360,10 +26358,10 @@
         <v>231</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -26371,13 +26369,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -30770,10 +30768,10 @@
         <v>484</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="D546" s="24" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -32643,13 +32641,13 @@
         <v>679</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32660,10 +32658,10 @@
         <v>3839</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32677,7 +32675,7 @@
         <v>3841</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32691,7 +32689,7 @@
         <v>3843</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32705,7 +32703,7 @@
         <v>3845</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32719,7 +32717,7 @@
         <v>3847</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32733,7 +32731,7 @@
         <v>3849</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32747,7 +32745,7 @@
         <v>3851</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32758,10 +32756,10 @@
         <v>3852</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>3853</v>
+        <v>4068</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3909</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32769,13 +32767,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>4070</v>
+        <v>4066</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="D689" s="26" t="s">
-        <v>4069</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32783,10 +32781,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="D690" s="26" t="s">
         <v>4073</v>
@@ -32797,13 +32795,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C691" s="17" t="s">
         <v>3854</v>
       </c>
-      <c r="C691" s="17" t="s">
-        <v>3855</v>
-      </c>
       <c r="D691" s="24" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32811,13 +32809,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C692" s="17" t="s">
         <v>3856</v>
       </c>
-      <c r="C692" s="17" t="s">
-        <v>3857</v>
-      </c>
       <c r="D692" s="24" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32825,13 +32823,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C693" s="17" t="s">
         <v>3858</v>
       </c>
-      <c r="C693" s="17" t="s">
-        <v>3859</v>
-      </c>
       <c r="D693" s="24" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32839,13 +32837,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C694" s="17" t="s">
         <v>3860</v>
       </c>
-      <c r="C694" s="17" t="s">
-        <v>3861</v>
-      </c>
       <c r="D694" s="24" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32853,13 +32851,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C695" s="17" t="s">
         <v>3862</v>
       </c>
-      <c r="C695" s="17" t="s">
-        <v>3863</v>
-      </c>
       <c r="D695" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32867,13 +32865,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C696" s="17" t="s">
         <v>3864</v>
       </c>
-      <c r="C696" s="17" t="s">
-        <v>3865</v>
-      </c>
       <c r="D696" s="24" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32881,13 +32879,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C697" s="17" t="s">
         <v>3866</v>
       </c>
-      <c r="C697" s="17" t="s">
-        <v>3867</v>
-      </c>
       <c r="D697" s="24" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32895,13 +32893,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C698" s="17" t="s">
         <v>3868</v>
       </c>
-      <c r="C698" s="17" t="s">
-        <v>3869</v>
-      </c>
       <c r="D698" s="24" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32909,13 +32907,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C699" s="17" t="s">
         <v>3870</v>
       </c>
-      <c r="C699" s="17" t="s">
-        <v>3871</v>
-      </c>
       <c r="D699" s="24" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32923,13 +32921,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C700" s="17" t="s">
         <v>3872</v>
       </c>
-      <c r="C700" s="17" t="s">
-        <v>3873</v>
-      </c>
       <c r="D700" s="24" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32937,13 +32935,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C701" s="17" t="s">
         <v>3874</v>
       </c>
-      <c r="C701" s="17" t="s">
-        <v>3875</v>
-      </c>
       <c r="D701" s="24" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32951,13 +32949,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C702" s="17" t="s">
         <v>3876</v>
       </c>
-      <c r="C702" s="17" t="s">
-        <v>3877</v>
-      </c>
       <c r="D702" s="24" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32965,13 +32963,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C703" s="17" t="s">
         <v>3878</v>
       </c>
-      <c r="C703" s="17" t="s">
-        <v>3879</v>
-      </c>
       <c r="D703" s="24" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32979,13 +32977,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C704" s="17" t="s">
         <v>3880</v>
       </c>
-      <c r="C704" s="17" t="s">
-        <v>3881</v>
-      </c>
       <c r="D704" s="24" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32993,13 +32991,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C705" s="17" t="s">
         <v>3882</v>
       </c>
-      <c r="C705" s="17" t="s">
-        <v>3883</v>
-      </c>
       <c r="D705" s="24" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -33007,13 +33005,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -33021,13 +33019,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -33035,13 +33033,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -33049,13 +33047,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C709" s="17" t="s">
         <v>3887</v>
       </c>
-      <c r="C709" s="17" t="s">
-        <v>3888</v>
-      </c>
       <c r="D709" s="24" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -33063,13 +33061,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C710" s="17" t="s">
         <v>3889</v>
       </c>
-      <c r="C710" s="17" t="s">
-        <v>3890</v>
-      </c>
       <c r="D710" s="24" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -33077,13 +33075,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C711" s="17" t="s">
         <v>3891</v>
       </c>
-      <c r="C711" s="17" t="s">
-        <v>3892</v>
-      </c>
       <c r="D711" s="24" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -33091,13 +33089,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C712" s="17" t="s">
         <v>3893</v>
       </c>
-      <c r="C712" s="17" t="s">
-        <v>3894</v>
-      </c>
       <c r="D712" s="24" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -33105,13 +33103,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C713" s="17" t="s">
         <v>3895</v>
       </c>
-      <c r="C713" s="17" t="s">
-        <v>3896</v>
-      </c>
       <c r="D713" s="24" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -33119,13 +33117,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C714" s="17" t="s">
         <v>3897</v>
       </c>
-      <c r="C714" s="17" t="s">
-        <v>3898</v>
-      </c>
       <c r="D714" s="24" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -33133,13 +33131,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C715" s="17" t="s">
         <v>3899</v>
       </c>
-      <c r="C715" s="17" t="s">
-        <v>3900</v>
-      </c>
       <c r="D715" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -33147,13 +33145,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C716" s="17" t="s">
         <v>3901</v>
       </c>
-      <c r="C716" s="17" t="s">
-        <v>3902</v>
-      </c>
       <c r="D716" s="24" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -33161,13 +33159,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -33175,13 +33173,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33189,13 +33187,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33203,13 +33201,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="C720" s="17" t="s">
         <v>3212</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33217,13 +33215,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33231,13 +33229,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33245,13 +33243,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33259,13 +33257,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33273,13 +33271,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33287,13 +33285,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33301,13 +33299,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33315,13 +33313,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33329,13 +33327,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="D729" s="24" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -33346,10 +33344,10 @@
         <v>3838</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33357,13 +33355,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33371,13 +33369,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="C732" s="17" t="s">
+        <v>3985</v>
+      </c>
+      <c r="D732" s="24" t="s">
         <v>3987</v>
-      </c>
-      <c r="D732" s="24" t="s">
-        <v>3989</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33385,7 +33383,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="C733" s="17" t="s">
         <v>1116</v>
@@ -33399,13 +33397,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33413,13 +33411,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33427,13 +33425,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -33441,13 +33439,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="D737" s="24" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -33455,13 +33453,13 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D738" s="24" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -33469,13 +33467,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="D739" s="24" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -33483,13 +33481,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="D740" s="24" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -33497,13 +33495,13 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="C741" s="17" t="s">
         <v>2029</v>
       </c>
       <c r="D741" s="17" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -33511,13 +33509,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="C742" s="17" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D742" s="17" t="s">
         <v>4012</v>
-      </c>
-      <c r="D742" s="17" t="s">
-        <v>4014</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -33525,13 +33523,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C743" s="17" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D743" s="24" t="s">
         <v>4024</v>
-      </c>
-      <c r="C743" s="17" t="s">
-        <v>4025</v>
-      </c>
-      <c r="D743" s="24" t="s">
-        <v>4026</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -33539,13 +33537,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D744" s="24" t="s">
         <v>4032</v>
-      </c>
-      <c r="C744" s="17" t="s">
-        <v>4033</v>
-      </c>
-      <c r="D744" s="24" t="s">
-        <v>4034</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33553,13 +33551,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="D745" s="24" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33567,13 +33565,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33581,13 +33579,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33595,13 +33593,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>4042</v>
+      </c>
+      <c r="D748" s="24" t="s">
         <v>4043</v>
-      </c>
-      <c r="C748" s="17" t="s">
-        <v>4044</v>
-      </c>
-      <c r="D748" s="24" t="s">
-        <v>4045</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33609,13 +33607,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33623,13 +33621,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D750" s="24" t="s">
         <v>4056</v>
-      </c>
-      <c r="C750" s="17" t="s">
-        <v>4057</v>
-      </c>
-      <c r="D750" s="24" t="s">
-        <v>4058</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33637,13 +33635,13 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4058</v>
+      </c>
+      <c r="D751" s="24" t="s">
         <v>4059</v>
-      </c>
-      <c r="C751" s="17" t="s">
-        <v>4060</v>
-      </c>
-      <c r="D751" s="24" t="s">
-        <v>4061</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -33651,13 +33649,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="4" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D752" s="24" t="s">
         <v>4062</v>
-      </c>
-      <c r="C752" s="17" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D752" s="24" t="s">
-        <v>4064</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -33665,13 +33663,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="4" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C753" s="17" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D753" s="24" t="s">
         <v>4065</v>
-      </c>
-      <c r="C753" s="17" t="s">
-        <v>4066</v>
-      </c>
-      <c r="D753" s="24" t="s">
-        <v>4067</v>
       </c>
     </row>
     <row r="754" spans="1:4">

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F01AE4F-B277-42D4-B1A9-D96F3890D9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F285720-A90D-4031-A6A9-D2402FCB453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="4074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="4104">
   <si>
     <t>myself</t>
   </si>
@@ -15446,6 +15446,120 @@
   </si>
   <si>
     <t>Print the exception log</t>
+  </si>
+  <si>
+    <t>projectTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoringModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时监控模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESResultStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatusStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyQueryModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmQueryModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display content configuration</t>
+  </si>
+  <si>
+    <t>Real-time monitoring module</t>
+  </si>
+  <si>
+    <t>Condition Diagnosis Statistics Pie Chart</t>
+  </si>
+  <si>
+    <t>Communication status statistics pie chart</t>
+  </si>
+  <si>
+    <t>Run state statistics pie chart</t>
+  </si>
+  <si>
+    <t>History query module</t>
+  </si>
+  <si>
+    <t>报警查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm query module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDeviceModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主设备模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary device module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23117,10 +23231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D763"/>
+  <dimension ref="A1:D783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D688" sqref="D688:D690"/>
+    <sheetView tabSelected="1" topLeftCell="A744" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D768" sqref="D768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33673,64 +33787,264 @@
       </c>
     </row>
     <row r="754" spans="1:4">
-      <c r="A754" s="14"/>
-      <c r="B754" s="4"/>
-      <c r="C754" s="17"/>
-      <c r="D754" s="24"/>
+      <c r="A754" s="14">
+        <v>753</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C754" s="17" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D754" s="24" t="s">
+        <v>4102</v>
+      </c>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="14"/>
-      <c r="B755" s="4"/>
-      <c r="C755" s="17"/>
-      <c r="D755" s="24"/>
+      <c r="A755" s="14">
+        <v>754</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C755" s="17" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D755" s="24" t="s">
+        <v>4103</v>
+      </c>
     </row>
     <row r="756" spans="1:4">
-      <c r="A756" s="14"/>
-      <c r="B756" s="4"/>
-      <c r="C756" s="17"/>
-      <c r="D756" s="24"/>
+      <c r="A756" s="14">
+        <v>755</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C756" s="17" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D756" s="24" t="s">
+        <v>4091</v>
+      </c>
     </row>
     <row r="757" spans="1:4">
-      <c r="A757" s="14"/>
-      <c r="B757" s="4"/>
-      <c r="C757" s="17"/>
-      <c r="D757" s="24"/>
+      <c r="A757" s="14">
+        <v>756</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C757" s="17" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D757" s="24" t="s">
+        <v>4092</v>
+      </c>
     </row>
     <row r="758" spans="1:4">
-      <c r="A758" s="14"/>
-      <c r="B758" s="4"/>
-      <c r="C758" s="17"/>
-      <c r="D758" s="24"/>
+      <c r="A758" s="14">
+        <v>757</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C758" s="17" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D758" s="24" t="s">
+        <v>4093</v>
+      </c>
     </row>
     <row r="759" spans="1:4">
-      <c r="A759" s="14"/>
-      <c r="B759" s="4"/>
-      <c r="C759" s="17"/>
-      <c r="D759" s="24"/>
+      <c r="A759" s="14">
+        <v>758</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C759" s="17" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D759" s="24" t="s">
+        <v>4094</v>
+      </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="14"/>
-      <c r="B760" s="4"/>
-      <c r="C760" s="17"/>
-      <c r="D760" s="24"/>
+      <c r="A760" s="14">
+        <v>759</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C760" s="17" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D760" s="24" t="s">
+        <v>4095</v>
+      </c>
     </row>
     <row r="761" spans="1:4">
-      <c r="A761" s="14"/>
-      <c r="B761" s="4"/>
-      <c r="C761" s="17"/>
-      <c r="D761" s="24"/>
+      <c r="A761" s="14">
+        <v>760</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C761" s="17" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D761" s="24" t="s">
+        <v>4096</v>
+      </c>
     </row>
     <row r="762" spans="1:4">
-      <c r="A762" s="14"/>
-      <c r="B762" s="4"/>
-      <c r="C762" s="17"/>
-      <c r="D762" s="24"/>
+      <c r="A762" s="14">
+        <v>761</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C762" s="17" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D762" s="24" t="s">
+        <v>4098</v>
+      </c>
     </row>
     <row r="763" spans="1:4">
-      <c r="A763" s="14"/>
-      <c r="B763" s="4"/>
-      <c r="C763" s="17"/>
-      <c r="D763" s="24"/>
+      <c r="A763" s="14">
+        <v>762</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C763" s="17" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D763" s="24" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="14"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="17"/>
+      <c r="D764" s="24"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="14"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="17"/>
+      <c r="D765" s="24"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="14"/>
+      <c r="B766" s="4"/>
+      <c r="C766" s="17"/>
+      <c r="D766" s="24"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="14"/>
+      <c r="B767" s="4"/>
+      <c r="C767" s="17"/>
+      <c r="D767" s="24"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="14"/>
+      <c r="B768" s="4"/>
+      <c r="C768" s="17"/>
+      <c r="D768" s="24"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="14"/>
+      <c r="B769" s="4"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="24"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="14"/>
+      <c r="B770" s="4"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="24"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="14"/>
+      <c r="B771" s="4"/>
+      <c r="C771" s="17"/>
+      <c r="D771" s="24"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="14"/>
+      <c r="B772" s="4"/>
+      <c r="C772" s="17"/>
+      <c r="D772" s="24"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="14"/>
+      <c r="B773" s="4"/>
+      <c r="C773" s="17"/>
+      <c r="D773" s="24"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="14"/>
+      <c r="B774" s="4"/>
+      <c r="C774" s="17"/>
+      <c r="D774" s="24"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="14"/>
+      <c r="B775" s="4"/>
+      <c r="C775" s="17"/>
+      <c r="D775" s="24"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="14"/>
+      <c r="B776" s="4"/>
+      <c r="C776" s="17"/>
+      <c r="D776" s="24"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="14"/>
+      <c r="B777" s="4"/>
+      <c r="C777" s="17"/>
+      <c r="D777" s="24"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="14"/>
+      <c r="B778" s="4"/>
+      <c r="C778" s="17"/>
+      <c r="D778" s="24"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="14"/>
+      <c r="B779" s="4"/>
+      <c r="C779" s="17"/>
+      <c r="D779" s="24"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="14"/>
+      <c r="B780" s="4"/>
+      <c r="C780" s="17"/>
+      <c r="D780" s="24"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="14"/>
+      <c r="B781" s="4"/>
+      <c r="C781" s="17"/>
+      <c r="D781" s="24"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="14"/>
+      <c r="B782" s="4"/>
+      <c r="C782" s="17"/>
+      <c r="D782" s="24"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="14"/>
+      <c r="B783" s="4"/>
+      <c r="C783" s="17"/>
+      <c r="D783" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnooc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnooc/locale/locale-en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BA514-B12C-43CB-8CB5-CF6167E6A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103996E-85EA-4399-BDBA-67C5F22D20E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="role" sheetId="9" r:id="rId9"/>
     <sheet name="video" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -15223,14 +15236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《智能化监控系统》 主要针对泵设备和管设备系列产品，通过驱动配置，实现采集、控制与报警等功能。模块包括实时监控、历史查询、生产报表、故障查询、设备日志、系统日志、计算维护、驱动配置、权限管理（组织用户、角色管理）、设备管理（设备信息、辅件设备、短信设备）和系统配置（模块配置、字典配置）等功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligent Monitoring System is mainly aimed at pump equipment and pipe equipment series products, through the drive configuration, to achieve collection, control and alarm functions. The module includes real-time monitoring, historical query, production report, fault query, device log, system log, computing and maintenance, driver configuration, permission management (organization user and role management), device management (device information, accessory devices, SMS devices), and system configuration (module configuration, dictionary configuration) and other functions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算字段关联表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15570,14 +15575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数值状态统计饼图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Numerical state statistics pie chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报警数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15630,6 +15627,22 @@
   </si>
   <si>
     <t>Alarm status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm status statistics pie chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《智能化监控系统》 主要针对泵设备和管设备系列产品，通过驱动配置，实现采集、控制与报警等功能。模块包括实时监控、历史查询、生产报表、报警查询、设备日志、系统日志、计算维护、驱动配置、权限管理（组织用户、角色管理）、设备管理（设备信息、辅件设备、短信设备）和系统配置（模块配置、字典配置）等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent Monitoring System is mainly aimed at pump equipment and pipe equipment series products, and realizes the functions of collection, control and alarm through drive configuration. The module includes real-time monitoring, historical query, production report, alarm query, device log, system log, calculation and maintenance, driver configuration, permission management (organization user, role management), device management (device information, auxiliary device, SMS device) and system configuration (module configuration, dictionary configuration) and other functions.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17879,8 +17892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17927,10 +17940,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>4017</v>
+        <v>4120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4018</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23304,8 +23317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A745" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C762" sqref="C762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23516,13 +23529,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>4120</v>
+        <v>4116</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -26053,10 +26066,10 @@
         <v>183</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -26078,13 +26091,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -26095,10 +26108,10 @@
         <v>185</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -26557,10 +26570,10 @@
         <v>231</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -26568,13 +26581,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -30967,10 +30980,10 @@
         <v>484</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="D547" s="24" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -32955,10 +32968,10 @@
         <v>3852</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="D689" s="24" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32966,13 +32979,13 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="D690" s="26" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32980,13 +32993,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="D691" s="26" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -33722,13 +33735,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D744" s="24" t="s">
         <v>4022</v>
-      </c>
-      <c r="C744" s="17" t="s">
-        <v>4023</v>
-      </c>
-      <c r="D744" s="24" t="s">
-        <v>4024</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33736,13 +33749,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C745" s="17" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D745" s="24" t="s">
         <v>4030</v>
-      </c>
-      <c r="C745" s="17" t="s">
-        <v>4031</v>
-      </c>
-      <c r="D745" s="24" t="s">
-        <v>4032</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33750,13 +33763,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33764,13 +33777,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33778,13 +33791,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="C748" s="17" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="D748" s="24" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33792,13 +33805,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C749" s="17" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D749" s="24" t="s">
         <v>4041</v>
-      </c>
-      <c r="C749" s="17" t="s">
-        <v>4042</v>
-      </c>
-      <c r="D749" s="24" t="s">
-        <v>4043</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33806,13 +33819,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="C750" s="17" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="D750" s="24" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33820,13 +33833,13 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D751" s="24" t="s">
         <v>4054</v>
-      </c>
-      <c r="C751" s="17" t="s">
-        <v>4055</v>
-      </c>
-      <c r="D751" s="24" t="s">
-        <v>4056</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -33834,13 +33847,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D752" s="24" t="s">
         <v>4057</v>
-      </c>
-      <c r="C752" s="17" t="s">
-        <v>4058</v>
-      </c>
-      <c r="D752" s="24" t="s">
-        <v>4059</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -33848,13 +33861,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="4" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C753" s="17" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D753" s="24" t="s">
         <v>4060</v>
-      </c>
-      <c r="C753" s="17" t="s">
-        <v>4061</v>
-      </c>
-      <c r="D753" s="24" t="s">
-        <v>4062</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -33862,13 +33875,13 @@
         <v>753</v>
       </c>
       <c r="B754" s="4" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C754" s="17" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D754" s="24" t="s">
         <v>4063</v>
-      </c>
-      <c r="C754" s="17" t="s">
-        <v>4064</v>
-      </c>
-      <c r="D754" s="24" t="s">
-        <v>4065</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -33876,13 +33889,13 @@
         <v>754</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="C755" s="17" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="D755" s="24" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -33890,13 +33903,13 @@
         <v>755</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="C756" s="17" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="D756" s="24" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -33904,13 +33917,13 @@
         <v>756</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="C757" s="17" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="D757" s="24" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -33918,13 +33931,13 @@
         <v>757</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="C758" s="17" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="D758" s="24" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -33932,13 +33945,13 @@
         <v>758</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="C759" s="17" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="D759" s="24" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -33946,13 +33959,13 @@
         <v>759</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="C760" s="17" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="D760" s="24" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -33960,13 +33973,13 @@
         <v>760</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="C761" s="17" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="D761" s="24" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -33974,13 +33987,13 @@
         <v>761</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="C762" s="17" t="s">
-        <v>4106</v>
+        <v>4118</v>
       </c>
       <c r="D762" s="24" t="s">
-        <v>4107</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -33988,13 +34001,13 @@
         <v>762</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="C763" s="17" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="D763" s="24" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -34002,13 +34015,13 @@
         <v>763</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="D764" s="24" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -34016,13 +34029,13 @@
         <v>764</v>
       </c>
       <c r="B765" s="4" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C765" s="17" t="s">
+        <v>4098</v>
+      </c>
+      <c r="D765" s="24" t="s">
         <v>4099</v>
-      </c>
-      <c r="C765" s="17" t="s">
-        <v>4100</v>
-      </c>
-      <c r="D765" s="24" t="s">
-        <v>4101</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -34030,13 +34043,13 @@
         <v>765</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>4110</v>
+        <v>4106</v>
       </c>
       <c r="C766" s="17" t="s">
-        <v>4108</v>
+        <v>4104</v>
       </c>
       <c r="D766" s="24" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -34044,13 +34057,13 @@
         <v>766</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="C767" s="17" t="s">
-        <v>4112</v>
+        <v>4108</v>
       </c>
       <c r="D767" s="24" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -34058,13 +34071,13 @@
         <v>767</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>4113</v>
+        <v>4109</v>
       </c>
       <c r="C768" s="17" t="s">
-        <v>4115</v>
+        <v>4111</v>
       </c>
       <c r="D768" s="24" t="s">
-        <v>4116</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -34072,13 +34085,13 @@
         <v>768</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>4119</v>
+        <v>4115</v>
       </c>
       <c r="C769" s="17" t="s">
-        <v>4117</v>
+        <v>4113</v>
       </c>
       <c r="D769" s="24" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="770" spans="1:4">
